--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -734,7 +734,7 @@
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
@@ -785,35 +785,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>612</v>
+        <v>414</v>
       </c>
       <c r="D2" t="n">
-        <v>588</v>
+        <v>329</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -824,24 +824,24 @@
         <v>612</v>
       </c>
       <c r="D3" t="n">
-        <v>591</v>
+        <v>494</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -852,24 +852,24 @@
         <v>612</v>
       </c>
       <c r="D4" t="n">
-        <v>591</v>
+        <v>242</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -880,35 +880,35 @@
         <v>612</v>
       </c>
       <c r="D5" t="n">
-        <v>591</v>
+        <v>244</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45867</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>612</v>
+        <v>945</v>
       </c>
       <c r="D6" t="n">
-        <v>591</v>
+        <v>930</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -917,15 +917,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45863</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -981,27 +981,27 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45862</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>1124</v>
       </c>
       <c r="D9" t="n">
-        <v>329</v>
+        <v>210</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>703</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1009,27 +1009,27 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45867</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>329</v>
+        <v>945</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1037,27 +1037,27 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45866</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>329</v>
+        <v>930</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1065,7 +1065,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45863</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1076,13 +1076,13 @@
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
@@ -1093,27 +1093,27 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45862</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>945</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>930</v>
+        <v>2</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1121,11 +1121,11 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45867</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1149,18 +1149,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45866</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1177,18 +1177,18 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1205,18 +1205,18 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1233,18 +1233,18 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1261,18 +1261,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1289,18 +1289,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45867</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1317,18 +1317,18 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45866</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1345,11 +1345,11 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45863</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-hin</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1373,11 +1373,11 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45848</v>
+        <v>45867</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1401,11 +1401,11 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45847</v>
+        <v>45866</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1429,11 +1429,11 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45846</v>
+        <v>45863</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-kan</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1457,39 +1457,39 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45845</v>
+        <v>45867</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D26" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45866</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1513,11 +1513,11 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45848</v>
+        <v>45863</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>masterdata-tam</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1541,27 +1541,27 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45847</v>
+        <v>45867</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D29" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G29" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1569,83 +1569,83 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45846</v>
+        <v>45866</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>masterdata-hin</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>930</v>
+        <v>322</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45849</v>
+        <v>45867</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>945</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>930</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1653,27 +1653,27 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45848</v>
+        <v>45866</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D33" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G33" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1681,27 +1681,27 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45847</v>
+        <v>45863</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>945</v>
+        <v>281</v>
       </c>
       <c r="D34" t="n">
-        <v>930</v>
+        <v>226</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="G34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1709,27 +1709,27 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45846</v>
+        <v>45866</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>945</v>
+        <v>1124</v>
       </c>
       <c r="D35" t="n">
-        <v>930</v>
+        <v>591</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="G35" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1737,27 +1737,27 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45845</v>
+        <v>45863</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>masterdata-kan</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>945</v>
+        <v>1124</v>
       </c>
       <c r="D36" t="n">
-        <v>930</v>
+        <v>210</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>703</v>
       </c>
       <c r="G36" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1765,27 +1765,27 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45849</v>
+        <v>45866</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>945</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>930</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1793,645 +1793,29 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45848</v>
+        <v>45863</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>masterdata-tam</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>945</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
-        <v>930</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G38" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>945</v>
-      </c>
-      <c r="D39" t="n">
-        <v>930</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>15</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>945</v>
-      </c>
-      <c r="D40" t="n">
-        <v>930</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>15</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>945</v>
-      </c>
-      <c r="D41" t="n">
-        <v>930</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>15</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>509</v>
-      </c>
-      <c r="D42" t="n">
-        <v>322</v>
-      </c>
-      <c r="E42" t="n">
-        <v>137</v>
-      </c>
-      <c r="F42" t="n">
-        <v>38</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>509</v>
-      </c>
-      <c r="D43" t="n">
-        <v>322</v>
-      </c>
-      <c r="E43" t="n">
-        <v>137</v>
-      </c>
-      <c r="F43" t="n">
-        <v>38</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>509</v>
-      </c>
-      <c r="D44" t="n">
-        <v>322</v>
-      </c>
-      <c r="E44" t="n">
-        <v>137</v>
-      </c>
-      <c r="F44" t="n">
-        <v>38</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>509</v>
-      </c>
-      <c r="D45" t="n">
-        <v>322</v>
-      </c>
-      <c r="E45" t="n">
-        <v>137</v>
-      </c>
-      <c r="F45" t="n">
-        <v>38</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>509</v>
-      </c>
-      <c r="D46" t="n">
-        <v>322</v>
-      </c>
-      <c r="E46" t="n">
-        <v>137</v>
-      </c>
-      <c r="F46" t="n">
-        <v>38</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>288</v>
-      </c>
-      <c r="D47" t="n">
-        <v>281</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>5</v>
-      </c>
-      <c r="G47" t="n">
-        <v>2</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>288</v>
-      </c>
-      <c r="D48" t="n">
-        <v>281</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5</v>
-      </c>
-      <c r="G48" t="n">
-        <v>2</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>288</v>
-      </c>
-      <c r="D49" t="n">
-        <v>281</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>5</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>288</v>
-      </c>
-      <c r="D50" t="n">
-        <v>281</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>5</v>
-      </c>
-      <c r="G50" t="n">
-        <v>2</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>288</v>
-      </c>
-      <c r="D51" t="n">
-        <v>281</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1123</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1124</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>0</v>
-      </c>
-      <c r="G53" t="n">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1122</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2</v>
-      </c>
-      <c r="G54" t="n">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1124</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" t="n">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1124</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1124</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" t="n">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>197</v>
-      </c>
-      <c r="D57" t="n">
-        <v>112</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>85</v>
-      </c>
-      <c r="G57" t="n">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>197</v>
-      </c>
-      <c r="D58" t="n">
-        <v>131</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>66</v>
-      </c>
-      <c r="G58" t="n">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>197</v>
-      </c>
-      <c r="D59" t="n">
-        <v>147</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>50</v>
-      </c>
-      <c r="G59" t="n">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>197</v>
-      </c>
-      <c r="D60" t="n">
-        <v>19</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>178</v>
-      </c>
-      <c r="G60" t="n">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -737,14 +737,14 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
@@ -753,19 +753,19 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="14" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -933,152 +933,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>496</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>417</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>113</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>242</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>201</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1095,157 +1095,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>703</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1257,157 +1257,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>25-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1419,1315 +1419,1443 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>226</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>226</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>226</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>466</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1026</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -723,7 +723,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -731,14 +731,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -753,7 +753,7 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
@@ -762,10 +762,19 @@
     <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="14" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -929,164 +938,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>496</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>417</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>76</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>494</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1095,160 +1184,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>329</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1257,160 +1386,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>30-July-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>29-July-2025</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>29-July-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>28-July-2025</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>28-July-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1419,160 +1588,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1581,160 +1790,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1743,160 +1992,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1905,160 +2194,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2067,160 +2396,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2229,160 +2598,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2391,160 +2800,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>408</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>557</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>226</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>226</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>226</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2553,306 +3002,402 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>557</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>590</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>466</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>1026</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>591</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>68</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>465</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>01-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>31-July-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>30-July-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>29-July-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>28-July-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -737,8 +737,8 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -749,7 +749,7 @@
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
@@ -933,152 +933,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>620</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>151</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>367</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>83</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>157</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>496</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>111</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1095,129 +1095,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>296</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>31-July-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>298</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1230,17 +1230,17 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>590</t>
+          <t>408</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>159</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>557</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1257,127 +1257,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>30-July-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1419,87 +1419,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1565,87 +1565,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1711,87 +1711,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1857,87 +1857,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2003,87 +2003,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2149,87 +2149,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2295,87 +2295,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2441,112 +2441,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>562</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>482</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>556</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>77</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>491</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>408</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>557</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2585,89 +2585,73 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -737,8 +737,8 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -758,7 +758,7 @@
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="14" customWidth="1" min="28" max="28"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
     <col width="10" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
@@ -933,152 +933,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>294</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>620</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>312</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>152</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>151</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>367</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>157</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1095,152 +1095,152 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>296</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1257,137 +1257,137 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>31-July-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1419,379 +1419,411 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>491</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1857,87 +1889,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2003,87 +2035,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2149,87 +2181,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2295,87 +2327,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>498</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>478</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>206</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2441,112 +2473,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>498</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>562</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>482</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>556</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>491</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2585,73 +2617,89 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v/>
-      </c>
-      <c r="B13" t="n">
-        <v/>
-      </c>
-      <c r="C13" t="n">
-        <v/>
-      </c>
-      <c r="D13" t="n">
-        <v/>
-      </c>
-      <c r="E13" t="n">
-        <v/>
-      </c>
-      <c r="F13" t="n">
-        <v/>
-      </c>
-      <c r="G13" t="n">
-        <v/>
-      </c>
-      <c r="H13" t="n">
-        <v/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
           <t>04-August-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -431,6 +431,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -723,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI13"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,12 +783,12 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -759,13 +809,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -933,157 +983,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>155</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>380</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>620</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -1095,157 +1145,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>294</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>296</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1257,157 +1307,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1419,152 +1469,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>556</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1581,157 +1631,157 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>01-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1743,1023 +1793,1443 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>205</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>452</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>526</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>498</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>562</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>482</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
         <v/>
       </c>
-      <c r="AC13" t="n">
+      <c r="B15" t="n">
         <v/>
       </c>
-      <c r="AD13" t="n">
+      <c r="C15" t="n">
         <v/>
       </c>
-      <c r="AE13" t="n">
+      <c r="D15" t="n">
         <v/>
       </c>
-      <c r="AF13" t="n">
+      <c r="E15" t="n">
         <v/>
       </c>
-      <c r="AG13" t="n">
+      <c r="F15" t="n">
         <v/>
       </c>
-      <c r="AH13" t="n">
+      <c r="G15" t="n">
         <v/>
       </c>
-      <c r="AI13" t="n">
+      <c r="H15" t="n">
         <v/>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>06-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>05-August-2025</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>04-August-2025</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,6 +816,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="4" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -979,164 +988,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>187</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>291</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>316</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>155</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>380</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1145,160 +1234,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>253</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>294</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>296</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>29</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1307,160 +1436,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1469,160 +1638,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1631,160 +1840,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1793,160 +2042,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1955,160 +2244,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2117,160 +2446,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2279,160 +2648,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2441,160 +2850,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>44</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>205</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>206</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>61</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2603,160 +3052,200 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>452</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>146</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>526</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>498</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>148</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>478</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>562</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>482</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2765,322 +3254,386 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v/>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3113,120 +3666,160 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>07-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>06-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>05-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>04-August-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -481,6 +481,31 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>308</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -773,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,12 +808,12 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -796,8 +821,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -805,8 +830,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="10" customWidth="1" min="29" max="29"/>
@@ -983,157 +1008,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>271</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>289</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>187</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>291</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>316</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -1145,157 +1170,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>241</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>74</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>253</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>414</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>259</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>198</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>667</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1307,152 +1332,152 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>08-August-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>197</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>188</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1469,142 +1494,142 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1614,7 +1639,7 @@
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1631,152 +1656,152 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>929</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>07-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
@@ -1793,249 +1818,233 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="Z7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>06-August-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2101,87 +2110,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2247,87 +2256,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2393,112 +2402,112 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>45</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>44</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2539,112 +2548,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>646</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>245</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>662</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>259</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>667</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2685,112 +2694,112 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>189</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>188</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2829,73 +2838,89 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v/>
-      </c>
-      <c r="B14" t="n">
-        <v/>
-      </c>
-      <c r="C14" t="n">
-        <v/>
-      </c>
-      <c r="D14" t="n">
-        <v/>
-      </c>
-      <c r="E14" t="n">
-        <v/>
-      </c>
-      <c r="F14" t="n">
-        <v/>
-      </c>
-      <c r="G14" t="n">
-        <v/>
-      </c>
-      <c r="H14" t="n">
-        <v/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2959,132 +2984,262 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v/>
-      </c>
-      <c r="B15" t="n">
-        <v/>
-      </c>
-      <c r="C15" t="n">
-        <v/>
-      </c>
-      <c r="D15" t="n">
-        <v/>
-      </c>
-      <c r="E15" t="n">
-        <v/>
-      </c>
-      <c r="F15" t="n">
-        <v/>
-      </c>
-      <c r="G15" t="n">
-        <v/>
-      </c>
-      <c r="H15" t="n">
-        <v/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v/>
-      </c>
-      <c r="AC15" t="n">
-        <v/>
-      </c>
-      <c r="AD15" t="n">
-        <v/>
-      </c>
-      <c r="AE15" t="n">
-        <v/>
-      </c>
-      <c r="AF15" t="n">
-        <v/>
-      </c>
-      <c r="AG15" t="n">
-        <v/>
-      </c>
-      <c r="AH15" t="n">
-        <v/>
-      </c>
-      <c r="AI15" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v/>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v/>
+      </c>
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="n">
+        <v/>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="n">
+        <v/>
+      </c>
+      <c r="W16" t="n">
+        <v/>
+      </c>
+      <c r="X16" t="n">
+        <v/>
+      </c>
+      <c r="Y16" t="n">
+        <v/>
+      </c>
+      <c r="Z16" t="n">
+        <v/>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -808,12 +808,12 @@
   <cols>
     <col width="16" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -821,8 +821,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -1008,157 +1008,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>271</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>172</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>383</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>205</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>289</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>154</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>187</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>291</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -1170,129 +1170,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>287</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>271</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>241</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>resident</t>
@@ -1305,17 +1305,17 @@
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>245</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>217</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>662</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1332,129 +1332,129 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>929</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>dsl</t>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>189</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1494,127 +1494,127 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
@@ -1656,127 +1656,127 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>929</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>07-August-2025</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
@@ -1818,87 +1818,87 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1964,87 +1964,87 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2110,87 +2110,87 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2256,87 +2256,87 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>322</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2402,87 +2402,87 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>185</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2548,112 +2548,112 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>635</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>214</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>646</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>662</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2694,112 +2694,112 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>188</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>189</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2840,87 +2840,87 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2984,114 +2984,98 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v/>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -3130,69 +3114,69 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v/>
+      </c>
+      <c r="B16" t="n">
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
-      <c r="K16" t="n">
-        <v/>
-      </c>
-      <c r="L16" t="n">
-        <v/>
-      </c>
-      <c r="M16" t="n">
-        <v/>
-      </c>
-      <c r="N16" t="n">
-        <v/>
-      </c>
-      <c r="O16" t="n">
-        <v/>
-      </c>
-      <c r="P16" t="n">
-        <v/>
-      </c>
-      <c r="Q16" t="n">
-        <v/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S16" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -821,8 +821,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
@@ -830,11 +830,11 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
@@ -1008,152 +1008,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>297</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>165</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>271</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>172</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>383</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>205</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>289</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>154</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1170,157 +1170,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>260</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>287</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>271</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>245</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>217</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>662</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1332,157 +1332,157 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>929</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1494,142 +1494,142 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
@@ -1656,157 +1656,157 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>08-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
@@ -1818,1169 +1818,1297 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>185</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>12-August-2025</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>12-August-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11-August-2025</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>300</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>635</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>11-August-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>214</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>646</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -3010,107 +3138,123 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>13-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v/>
-      </c>
-      <c r="AC15" t="n">
-        <v/>
-      </c>
-      <c r="AD15" t="n">
-        <v/>
-      </c>
-      <c r="AE15" t="n">
-        <v/>
-      </c>
-      <c r="AF15" t="n">
-        <v/>
-      </c>
-      <c r="AG15" t="n">
-        <v/>
-      </c>
-      <c r="AH15" t="n">
-        <v/>
-      </c>
-      <c r="AI15" t="n">
-        <v/>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -3138,69 +3282,69 @@
       <c r="H16" t="n">
         <v/>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v/>
+      </c>
+      <c r="M16" t="n">
+        <v/>
+      </c>
+      <c r="N16" t="n">
+        <v/>
+      </c>
+      <c r="O16" t="n">
+        <v/>
+      </c>
+      <c r="P16" t="n">
+        <v/>
+      </c>
+      <c r="Q16" t="n">
+        <v/>
+      </c>
+      <c r="S16" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="n">
-        <v/>
-      </c>
-      <c r="U16" t="n">
-        <v/>
-      </c>
-      <c r="V16" t="n">
-        <v/>
-      </c>
-      <c r="W16" t="n">
-        <v/>
-      </c>
-      <c r="X16" t="n">
-        <v/>
-      </c>
-      <c r="Y16" t="n">
-        <v/>
-      </c>
-      <c r="Z16" t="n">
-        <v/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB16" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -798,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI16"/>
+  <dimension ref="A1:AR16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -830,8 +830,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
     <col width="16" customWidth="1" min="29" max="29"/>
@@ -839,8 +839,17 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1004,164 +1013,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>333</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>110</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>297</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>165</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>271</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>172</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>383</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>205</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1170,160 +1259,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>310</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>260</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>59</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>287</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>271</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>47</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1332,160 +1461,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>929</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1494,160 +1663,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1656,160 +1865,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1818,160 +2067,200 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1980,160 +2269,200 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2142,160 +2471,200 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2304,160 +2673,200 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="AB10" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AK10" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>322</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>38</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2466,160 +2875,200 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>186</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>30</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
+      <c r="AD11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
+      <c r="AE11" t="inlineStr">
         <is>
           <t>185</t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
+      <c r="AF11" t="inlineStr">
         <is>
           <t>36</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
+      <c r="AG11" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AE11" t="inlineStr">
+      <c r="AN11" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
+      <c r="AO11" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="AG11" t="inlineStr">
+      <c r="AP11" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2628,484 +3077,572 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>15-August-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>246</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>217</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>661</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>300</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>635</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>214</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>646</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v/>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>14-August-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3138,120 +3675,160 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>14-August-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>13-August-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>11-August-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -3306,68 +3883,92 @@
       <c r="Q16" t="n">
         <v/>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="n">
+        <v/>
+      </c>
+      <c r="W16" t="n">
+        <v/>
+      </c>
+      <c r="X16" t="n">
+        <v/>
+      </c>
+      <c r="Y16" t="n">
+        <v/>
+      </c>
+      <c r="Z16" t="n">
+        <v/>
+      </c>
+      <c r="AB16" t="inlineStr">
         <is>
           <t>12-August-2025</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="AC16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
+      <c r="AD16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
+      <c r="AE16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="AF16" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="AG16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB16" t="n">
-        <v/>
-      </c>
-      <c r="AC16" t="n">
-        <v/>
-      </c>
-      <c r="AD16" t="n">
-        <v/>
-      </c>
-      <c r="AE16" t="n">
-        <v/>
-      </c>
-      <c r="AF16" t="n">
-        <v/>
-      </c>
-      <c r="AG16" t="n">
-        <v/>
-      </c>
-      <c r="AH16" t="n">
-        <v/>
-      </c>
-      <c r="AI16" t="n">
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK16" t="n">
+        <v/>
+      </c>
+      <c r="AL16" t="n">
+        <v/>
+      </c>
+      <c r="AM16" t="n">
+        <v/>
+      </c>
+      <c r="AN16" t="n">
+        <v/>
+      </c>
+      <c r="AO16" t="n">
+        <v/>
+      </c>
+      <c r="AP16" t="n">
+        <v/>
+      </c>
+      <c r="AQ16" t="n">
+        <v/>
+      </c>
+      <c r="AR16" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -573,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,13 +591,22 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="3" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="2" customWidth="1" min="18" max="18"/>
+    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="5" customWidth="1" min="22" max="22"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="24" max="24"/>
+    <col width="3" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -681,84 +690,164 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -767,80 +856,120 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>179</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>126</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -849,80 +978,120 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -931,80 +1100,120 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1013,80 +1222,120 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>26-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1117,42 +1366,66 @@
       <c r="H7" t="n">
         <v/>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -573,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,8 +587,8 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="3" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="16" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
@@ -596,17 +596,26 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="3" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="16" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -730,246 +739,366 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>12</t>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>179</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -978,120 +1107,160 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1100,120 +1269,160 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>22-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1222,114 +1431,114 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>27-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1340,95 +1549,29 @@
           <t>0</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="AB6" t="n">
         <v/>
       </c>
-      <c r="B7" t="n">
+      <c r="AC6" t="n">
         <v/>
       </c>
-      <c r="C7" t="n">
+      <c r="AD6" t="n">
         <v/>
       </c>
-      <c r="D7" t="n">
+      <c r="AE6" t="n">
         <v/>
       </c>
-      <c r="E7" t="n">
+      <c r="AF6" t="n">
         <v/>
       </c>
-      <c r="F7" t="n">
+      <c r="AG6" t="n">
         <v/>
       </c>
-      <c r="G7" t="n">
+      <c r="AH6" t="n">
         <v/>
       </c>
-      <c r="H7" t="n">
+      <c r="AI6" t="n">
         <v/>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -246,31 +246,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom prst="rect"/>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>110</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="7620000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="6" name="Image 6" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip cstate="print" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -609,13 +584,13 @@
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="16" customWidth="1" min="28" max="28"/>
-    <col width="12" customWidth="1" min="29" max="29"/>
+    <col width="9" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -783,314 +758,314 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>179</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>63</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1107,152 +1082,152 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>190</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>18</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1269,152 +1244,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>22-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1431,147 +1406,163 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>28-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -548,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +591,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="16" customWidth="1" min="37" max="37"/>
+    <col width="9" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -754,164 +763,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -920,160 +1009,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>136</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>106</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>179</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>39</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1082,160 +1211,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1244,160 +1413,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1406,160 +1615,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>29-August-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>26-August-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>25-August-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -548,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
@@ -589,17 +589,8 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="16" customWidth="1" min="37" max="37"/>
-    <col width="9" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -763,196 +754,156 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>197</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>190</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -962,199 +913,159 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>175</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1163,46 +1074,6 @@
         </is>
       </c>
       <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>179</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1211,152 +1082,152 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>27-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1365,46 +1236,6 @@
         </is>
       </c>
       <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1413,104 +1244,104 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1531,198 +1362,142 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>01-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>28-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1733,85 +1508,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>26-August-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>25-August-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -565,7 +565,7 @@
     <col width="3" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
-    <col width="16" customWidth="1" min="10" max="10"/>
+    <col width="19" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
@@ -758,127 +758,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -920,127 +920,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>194</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>92</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>46</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1082,127 +1082,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>27-August-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1244,87 +1244,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1390,112 +1390,112 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>02-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -574,7 +574,7 @@
     <col width="3" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
-    <col width="16" customWidth="1" min="19" max="19"/>
+    <col width="19" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
@@ -758,127 +758,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -920,127 +920,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>176</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>194</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1082,152 +1082,152 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>29-August-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>28-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>4</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1244,87 +1244,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1390,112 +1390,112 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>03-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -583,14 +583,14 @@
     <col width="3" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
-    <col width="16" customWidth="1" min="28" max="28"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
     <col width="9" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="3" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -758,314 +758,314 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>178</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>176</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>194</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>63</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1082,152 +1082,152 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>190</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>29-August-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>4</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1244,293 +1244,325 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>04-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -548,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,6 +591,15 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="3" customWidth="1" min="34" max="34"/>
     <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="9" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="3" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -754,164 +763,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>320</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>137</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>40</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -920,160 +1009,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>178</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>52</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>176</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>54</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>51</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>194</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>24</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1082,160 +1211,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1244,160 +1413,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1406,160 +1615,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>05-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>02-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>01-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -548,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,17 +589,8 @@
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="3" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
-    <col width="9" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="3" customWidth="1" min="43" max="43"/>
-    <col width="4" customWidth="1" min="44" max="44"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -763,196 +754,156 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>197</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>190</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -962,199 +913,159 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>178</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1163,46 +1074,6 @@
         </is>
       </c>
       <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>194</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1211,152 +1082,152 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>03-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1365,46 +1236,6 @@
         </is>
       </c>
       <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1413,104 +1244,104 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1531,198 +1362,142 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>08-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>04-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>0</t>
@@ -1733,85 +1508,29 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>02-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>01-September-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -246,6 +246,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>110</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -548,7 +573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,8 +582,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
@@ -571,8 +596,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="3" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -580,8 +605,8 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="3" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="9" customWidth="1" min="29" max="29"/>
@@ -758,127 +783,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
@@ -920,127 +945,127 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>177</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
@@ -1082,127 +1107,127 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>623</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>03-September-2025</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
@@ -1244,87 +1269,87 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1390,146 +1415,260 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>09-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
+      </c>
+      <c r="Z7" t="n">
+        <v/>
+      </c>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -271,6 +271,206 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>198</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>220</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -573,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -582,17 +782,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="3" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
@@ -783,142 +983,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -928,7 +1128,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -945,152 +1145,152 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>177</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>05-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1107,114 +1307,114 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>283</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>218</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>623</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>0</t>
@@ -1225,131 +1425,115 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>04-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1415,87 +1599,87 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1561,67 +1745,83 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S7" t="n">
         <v/>
@@ -1669,6 +1869,804 @@
         <v/>
       </c>
       <c r="AI7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v/>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="X11" t="n">
+        <v/>
+      </c>
+      <c r="Y11" t="n">
+        <v/>
+      </c>
+      <c r="Z11" t="n">
+        <v/>
+      </c>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
+      </c>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -791,17 +791,17 @@
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
@@ -983,314 +983,314 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>86</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>296</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>289</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>177</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>55</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>05-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1307,545 +1307,609 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>283</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>218</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>623</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="W7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
-      </c>
-      <c r="Z7" t="n">
-        <v/>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB7" t="n">
         <v/>
@@ -1875,67 +1939,83 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S8" t="n">
         <v/>
@@ -1989,67 +2069,83 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S9" t="n">
         <v/>
@@ -2103,67 +2199,83 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
       </c>
       <c r="S10" t="n">
         <v/>
@@ -2217,67 +2329,83 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>193</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S11" t="n">
         <v/>
@@ -2331,67 +2459,83 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S12" t="n">
         <v/>
@@ -2445,67 +2589,83 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S13" t="n">
         <v/>
@@ -2559,67 +2719,83 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S14" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -787,12 +787,12 @@
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
@@ -800,8 +800,8 @@
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
@@ -809,13 +809,22 @@
     <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="9" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="9" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -979,164 +988,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>330</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>86</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>296</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -1145,160 +1234,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>311</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>289</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>91</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>45</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>177</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>49</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>55</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1307,160 +1436,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>283</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>218</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>623</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1469,160 +1638,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
         <is>
           <t>189</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1631,160 +1840,200 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>08-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AP6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1793,253 +2042,309 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>09-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
+      <c r="AG7" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK7" t="n">
+        <v/>
+      </c>
+      <c r="AL7" t="n">
+        <v/>
+      </c>
+      <c r="AM7" t="n">
+        <v/>
+      </c>
+      <c r="AN7" t="n">
+        <v/>
+      </c>
+      <c r="AO7" t="n">
+        <v/>
+      </c>
+      <c r="AP7" t="n">
+        <v/>
+      </c>
+      <c r="AQ7" t="n">
+        <v/>
+      </c>
+      <c r="AR7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
-        <v/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB8" t="n">
         <v/>
@@ -2063,113 +2368,153 @@
         <v/>
       </c>
       <c r="AI8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="n">
+        <v/>
+      </c>
+      <c r="AL8" t="n">
+        <v/>
+      </c>
+      <c r="AM8" t="n">
+        <v/>
+      </c>
+      <c r="AN8" t="n">
+        <v/>
+      </c>
+      <c r="AO8" t="n">
+        <v/>
+      </c>
+      <c r="AP8" t="n">
+        <v/>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
+      <c r="AR8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB9" t="n">
         <v/>
@@ -2193,114 +2538,154 @@
         <v/>
       </c>
       <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="n">
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v/>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
+      <c r="AN9" t="n">
+        <v/>
+      </c>
+      <c r="AO9" t="n">
+        <v/>
+      </c>
+      <c r="AP9" t="n">
+        <v/>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
+      <c r="AR9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
-      </c>
       <c r="AB10" t="n">
         <v/>
       </c>
@@ -2323,113 +2708,153 @@
         <v/>
       </c>
       <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="n">
+        <v/>
+      </c>
+      <c r="AL10" t="n">
+        <v/>
+      </c>
+      <c r="AM10" t="n">
+        <v/>
+      </c>
+      <c r="AN10" t="n">
+        <v/>
+      </c>
+      <c r="AO10" t="n">
+        <v/>
+      </c>
+      <c r="AP10" t="n">
+        <v/>
+      </c>
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
+      <c r="AR10" t="n">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>185</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>193</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>65</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="n">
-        <v/>
-      </c>
-      <c r="X11" t="n">
-        <v/>
-      </c>
-      <c r="Y11" t="n">
-        <v/>
-      </c>
-      <c r="Z11" t="n">
-        <v/>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB11" t="n">
         <v/>
@@ -2453,113 +2878,153 @@
         <v/>
       </c>
       <c r="AI11" t="n">
+        <v/>
+      </c>
+      <c r="AK11" t="n">
+        <v/>
+      </c>
+      <c r="AL11" t="n">
+        <v/>
+      </c>
+      <c r="AM11" t="n">
+        <v/>
+      </c>
+      <c r="AN11" t="n">
+        <v/>
+      </c>
+      <c r="AO11" t="n">
+        <v/>
+      </c>
+      <c r="AP11" t="n">
+        <v/>
+      </c>
+      <c r="AQ11" t="n">
+        <v/>
+      </c>
+      <c r="AR11" t="n">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v/>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
-      </c>
-      <c r="Z12" t="n">
-        <v/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB12" t="n">
         <v/>
@@ -2583,113 +3048,153 @@
         <v/>
       </c>
       <c r="AI12" t="n">
+        <v/>
+      </c>
+      <c r="AK12" t="n">
+        <v/>
+      </c>
+      <c r="AL12" t="n">
+        <v/>
+      </c>
+      <c r="AM12" t="n">
+        <v/>
+      </c>
+      <c r="AN12" t="n">
+        <v/>
+      </c>
+      <c r="AO12" t="n">
+        <v/>
+      </c>
+      <c r="AP12" t="n">
+        <v/>
+      </c>
+      <c r="AQ12" t="n">
+        <v/>
+      </c>
+      <c r="AR12" t="n">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB13" t="n">
         <v/>
@@ -2713,136 +3218,338 @@
         <v/>
       </c>
       <c r="AI13" t="n">
+        <v/>
+      </c>
+      <c r="AK13" t="n">
+        <v/>
+      </c>
+      <c r="AL13" t="n">
+        <v/>
+      </c>
+      <c r="AM13" t="n">
+        <v/>
+      </c>
+      <c r="AN13" t="n">
+        <v/>
+      </c>
+      <c r="AO13" t="n">
+        <v/>
+      </c>
+      <c r="AP13" t="n">
+        <v/>
+      </c>
+      <c r="AQ13" t="n">
+        <v/>
+      </c>
+      <c r="AR13" t="n">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>10-September-2025</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="W14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
+      </c>
+      <c r="AK14" t="n">
+        <v/>
+      </c>
+      <c r="AL14" t="n">
+        <v/>
+      </c>
+      <c r="AM14" t="n">
+        <v/>
+      </c>
+      <c r="AN14" t="n">
+        <v/>
+      </c>
+      <c r="AO14" t="n">
+        <v/>
+      </c>
+      <c r="AP14" t="n">
+        <v/>
+      </c>
+      <c r="AQ14" t="n">
+        <v/>
+      </c>
+      <c r="AR14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v/>
+      </c>
+      <c r="B15" t="n">
+        <v/>
+      </c>
+      <c r="C15" t="n">
+        <v/>
+      </c>
+      <c r="D15" t="n">
+        <v/>
+      </c>
+      <c r="E15" t="n">
+        <v/>
+      </c>
+      <c r="F15" t="n">
+        <v/>
+      </c>
+      <c r="G15" t="n">
+        <v/>
+      </c>
+      <c r="H15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>11-September-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="n">
-        <v/>
-      </c>
-      <c r="X14" t="n">
-        <v/>
-      </c>
-      <c r="Y14" t="n">
-        <v/>
-      </c>
-      <c r="Z14" t="n">
-        <v/>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v/>
+      </c>
+      <c r="V15" t="n">
+        <v/>
+      </c>
+      <c r="W15" t="n">
+        <v/>
+      </c>
+      <c r="X15" t="n">
+        <v/>
+      </c>
+      <c r="Y15" t="n">
+        <v/>
+      </c>
+      <c r="Z15" t="n">
+        <v/>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
+      </c>
+      <c r="AK15" t="n">
+        <v/>
+      </c>
+      <c r="AL15" t="n">
+        <v/>
+      </c>
+      <c r="AM15" t="n">
+        <v/>
+      </c>
+      <c r="AN15" t="n">
+        <v/>
+      </c>
+      <c r="AO15" t="n">
+        <v/>
+      </c>
+      <c r="AP15" t="n">
+        <v/>
+      </c>
+      <c r="AQ15" t="n">
+        <v/>
+      </c>
+      <c r="AR15" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR15"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -794,37 +794,28 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
+    <col width="6" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="9" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
-    <col width="9" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -988,398 +979,318 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>330</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>86</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>225</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>296</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>299</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>311</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>289</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1388,46 +1299,6 @@
         </is>
       </c>
       <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>177</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1436,152 +1307,152 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>10-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1590,46 +1461,6 @@
         </is>
       </c>
       <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1638,104 +1469,104 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>0</t>
@@ -1756,591 +1587,439 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>08-September-2025</t>
-        </is>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="Z7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>09-September-2025</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK7" t="n">
-        <v/>
-      </c>
-      <c r="AL7" t="n">
-        <v/>
-      </c>
-      <c r="AM7" t="n">
-        <v/>
-      </c>
-      <c r="AN7" t="n">
-        <v/>
-      </c>
-      <c r="AO7" t="n">
-        <v/>
-      </c>
-      <c r="AP7" t="n">
-        <v/>
-      </c>
-      <c r="AQ7" t="n">
-        <v/>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="Z8" t="inlineStr">
         <is>
           <t>0</t>
@@ -2368,149 +2047,125 @@
         <v/>
       </c>
       <c r="AI8" t="n">
-        <v/>
-      </c>
-      <c r="AK8" t="n">
-        <v/>
-      </c>
-      <c r="AL8" t="n">
-        <v/>
-      </c>
-      <c r="AM8" t="n">
-        <v/>
-      </c>
-      <c r="AN8" t="n">
-        <v/>
-      </c>
-      <c r="AO8" t="n">
-        <v/>
-      </c>
-      <c r="AP8" t="n">
-        <v/>
-      </c>
-      <c r="AQ8" t="n">
-        <v/>
-      </c>
-      <c r="AR8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="Z9" t="inlineStr">
         <is>
           <t>0</t>
@@ -2538,154 +2193,130 @@
         <v/>
       </c>
       <c r="AI9" t="n">
-        <v/>
-      </c>
-      <c r="AK9" t="n">
-        <v/>
-      </c>
-      <c r="AL9" t="n">
-        <v/>
-      </c>
-      <c r="AM9" t="n">
-        <v/>
-      </c>
-      <c r="AN9" t="n">
-        <v/>
-      </c>
-      <c r="AO9" t="n">
-        <v/>
-      </c>
-      <c r="AP9" t="n">
-        <v/>
-      </c>
-      <c r="AQ9" t="n">
-        <v/>
-      </c>
-      <c r="AR9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>332</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="AB10" t="n">
         <v/>
       </c>
@@ -2708,144 +2339,120 @@
         <v/>
       </c>
       <c r="AI10" t="n">
-        <v/>
-      </c>
-      <c r="AK10" t="n">
-        <v/>
-      </c>
-      <c r="AL10" t="n">
-        <v/>
-      </c>
-      <c r="AM10" t="n">
-        <v/>
-      </c>
-      <c r="AN10" t="n">
-        <v/>
-      </c>
-      <c r="AO10" t="n">
-        <v/>
-      </c>
-      <c r="AP10" t="n">
-        <v/>
-      </c>
-      <c r="AQ10" t="n">
-        <v/>
-      </c>
-      <c r="AR10" t="n">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>281</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>185</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="W11" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="X11" t="inlineStr">
         <is>
           <t>63</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>281</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>0</t>
@@ -2878,144 +2485,120 @@
         <v/>
       </c>
       <c r="AI11" t="n">
-        <v/>
-      </c>
-      <c r="AK11" t="n">
-        <v/>
-      </c>
-      <c r="AL11" t="n">
-        <v/>
-      </c>
-      <c r="AM11" t="n">
-        <v/>
-      </c>
-      <c r="AN11" t="n">
-        <v/>
-      </c>
-      <c r="AO11" t="n">
-        <v/>
-      </c>
-      <c r="AP11" t="n">
-        <v/>
-      </c>
-      <c r="AQ11" t="n">
-        <v/>
-      </c>
-      <c r="AR11" t="n">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1025</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>703</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
       <c r="Y12" t="inlineStr">
         <is>
           <t>0</t>
@@ -3048,144 +2631,120 @@
         <v/>
       </c>
       <c r="AI12" t="n">
-        <v/>
-      </c>
-      <c r="AK12" t="n">
-        <v/>
-      </c>
-      <c r="AL12" t="n">
-        <v/>
-      </c>
-      <c r="AM12" t="n">
-        <v/>
-      </c>
-      <c r="AN12" t="n">
-        <v/>
-      </c>
-      <c r="AO12" t="n">
-        <v/>
-      </c>
-      <c r="AP12" t="n">
-        <v/>
-      </c>
-      <c r="AQ12" t="n">
-        <v/>
-      </c>
-      <c r="AR12" t="n">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Y13" t="inlineStr">
         <is>
           <t>0</t>
@@ -3218,142 +2777,118 @@
         <v/>
       </c>
       <c r="AI13" t="n">
-        <v/>
-      </c>
-      <c r="AK13" t="n">
-        <v/>
-      </c>
-      <c r="AL13" t="n">
-        <v/>
-      </c>
-      <c r="AM13" t="n">
-        <v/>
-      </c>
-      <c r="AN13" t="n">
-        <v/>
-      </c>
-      <c r="AO13" t="n">
-        <v/>
-      </c>
-      <c r="AP13" t="n">
-        <v/>
-      </c>
-      <c r="AQ13" t="n">
-        <v/>
-      </c>
-      <c r="AR13" t="n">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -3388,30 +2923,6 @@
         <v/>
       </c>
       <c r="AI14" t="n">
-        <v/>
-      </c>
-      <c r="AK14" t="n">
-        <v/>
-      </c>
-      <c r="AL14" t="n">
-        <v/>
-      </c>
-      <c r="AM14" t="n">
-        <v/>
-      </c>
-      <c r="AN14" t="n">
-        <v/>
-      </c>
-      <c r="AO14" t="n">
-        <v/>
-      </c>
-      <c r="AP14" t="n">
-        <v/>
-      </c>
-      <c r="AQ14" t="n">
-        <v/>
-      </c>
-      <c r="AR14" t="n">
         <v/>
       </c>
     </row>
@@ -3442,67 +2953,83 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>12-September-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="n">
-        <v/>
-      </c>
-      <c r="U15" t="n">
-        <v/>
-      </c>
-      <c r="V15" t="n">
-        <v/>
-      </c>
-      <c r="W15" t="n">
-        <v/>
-      </c>
-      <c r="X15" t="n">
-        <v/>
-      </c>
-      <c r="Y15" t="n">
-        <v/>
-      </c>
-      <c r="Z15" t="n">
-        <v/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB15" t="n">
         <v/>
@@ -3526,30 +3053,6 @@
         <v/>
       </c>
       <c r="AI15" t="n">
-        <v/>
-      </c>
-      <c r="AK15" t="n">
-        <v/>
-      </c>
-      <c r="AL15" t="n">
-        <v/>
-      </c>
-      <c r="AM15" t="n">
-        <v/>
-      </c>
-      <c r="AN15" t="n">
-        <v/>
-      </c>
-      <c r="AO15" t="n">
-        <v/>
-      </c>
-      <c r="AP15" t="n">
-        <v/>
-      </c>
-      <c r="AQ15" t="n">
-        <v/>
-      </c>
-      <c r="AR15" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -782,7 +782,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="9" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -794,7 +794,7 @@
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
+    <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
     <col width="4" customWidth="1" min="16" max="16"/>
     <col width="4" customWidth="1" min="17" max="17"/>
@@ -803,14 +803,14 @@
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="5" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="9" customWidth="1" min="29" max="29"/>
-    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
@@ -983,152 +983,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>276</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>330</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>225</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>296</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1145,142 +1145,142 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>317</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>299</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>311</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1307,152 +1307,152 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>10-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>pmpui</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>210</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>211</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>703</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1467,381 +1467,365 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v/>
+      </c>
+      <c r="B5" t="n">
+        <v/>
+      </c>
+      <c r="C5" t="n">
+        <v/>
+      </c>
+      <c r="D5" t="n">
+        <v/>
+      </c>
+      <c r="E5" t="n">
+        <v/>
+      </c>
+      <c r="F5" t="n">
+        <v/>
+      </c>
+      <c r="G5" t="n">
+        <v/>
+      </c>
+      <c r="H5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v/>
+      </c>
+      <c r="B6" t="n">
+        <v/>
+      </c>
+      <c r="C6" t="n">
+        <v/>
+      </c>
+      <c r="D6" t="n">
+        <v/>
+      </c>
+      <c r="E6" t="n">
+        <v/>
+      </c>
+      <c r="F6" t="n">
+        <v/>
+      </c>
+      <c r="G6" t="n">
+        <v/>
+      </c>
+      <c r="H6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>11-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v/>
+      </c>
+      <c r="B7" t="n">
+        <v/>
+      </c>
+      <c r="C7" t="n">
+        <v/>
+      </c>
+      <c r="D7" t="n">
+        <v/>
+      </c>
+      <c r="E7" t="n">
+        <v/>
+      </c>
+      <c r="F7" t="n">
+        <v/>
+      </c>
+      <c r="G7" t="n">
+        <v/>
+      </c>
+      <c r="H7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1905,89 +1889,73 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v/>
+      </c>
+      <c r="B8" t="n">
+        <v/>
+      </c>
+      <c r="C8" t="n">
+        <v/>
+      </c>
+      <c r="D8" t="n">
+        <v/>
+      </c>
+      <c r="E8" t="n">
+        <v/>
+      </c>
+      <c r="F8" t="n">
+        <v/>
+      </c>
+      <c r="G8" t="n">
+        <v/>
+      </c>
+      <c r="H8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2051,89 +2019,73 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v/>
+      </c>
+      <c r="B9" t="n">
+        <v/>
+      </c>
+      <c r="C9" t="n">
+        <v/>
+      </c>
+      <c r="D9" t="n">
+        <v/>
+      </c>
+      <c r="E9" t="n">
+        <v/>
+      </c>
+      <c r="F9" t="n">
+        <v/>
+      </c>
+      <c r="G9" t="n">
+        <v/>
+      </c>
+      <c r="H9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2197,89 +2149,73 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v/>
+      </c>
+      <c r="B10" t="n">
+        <v/>
+      </c>
+      <c r="C10" t="n">
+        <v/>
+      </c>
+      <c r="D10" t="n">
+        <v/>
+      </c>
+      <c r="E10" t="n">
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
+      </c>
+      <c r="G10" t="n">
+        <v/>
+      </c>
+      <c r="H10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -2343,114 +2279,98 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v/>
+      </c>
+      <c r="B11" t="n">
+        <v/>
+      </c>
+      <c r="C11" t="n">
+        <v/>
+      </c>
+      <c r="D11" t="n">
+        <v/>
+      </c>
+      <c r="E11" t="n">
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
+      </c>
+      <c r="G11" t="n">
+        <v/>
+      </c>
+      <c r="H11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -2489,114 +2409,98 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v/>
+      </c>
+      <c r="B12" t="n">
+        <v/>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="n">
+        <v/>
+      </c>
+      <c r="E12" t="n">
+        <v/>
+      </c>
+      <c r="F12" t="n">
+        <v/>
+      </c>
+      <c r="G12" t="n">
+        <v/>
+      </c>
+      <c r="H12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>31</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>1025</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>68</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>703</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2635,89 +2539,73 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v/>
+      </c>
+      <c r="B13" t="n">
+        <v/>
+      </c>
+      <c r="C13" t="n">
+        <v/>
+      </c>
+      <c r="D13" t="n">
+        <v/>
+      </c>
+      <c r="E13" t="n">
+        <v/>
+      </c>
+      <c r="F13" t="n">
+        <v/>
+      </c>
+      <c r="G13" t="n">
+        <v/>
+      </c>
+      <c r="H13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2781,89 +2669,73 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v/>
+      </c>
+      <c r="B14" t="n">
+        <v/>
+      </c>
+      <c r="C14" t="n">
+        <v/>
+      </c>
+      <c r="D14" t="n">
+        <v/>
+      </c>
+      <c r="E14" t="n">
+        <v/>
+      </c>
+      <c r="F14" t="n">
+        <v/>
+      </c>
+      <c r="G14" t="n">
+        <v/>
+      </c>
+      <c r="H14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2953,47 +2825,47 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -791,19 +791,19 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="10" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="4" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="16" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="4" customWidth="1" min="25" max="25"/>
     <col width="4" customWidth="1" min="26" max="26"/>
@@ -812,7 +812,7 @@
     <col width="10" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
@@ -983,152 +983,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>67</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>264</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>276</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>330</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1145,152 +1145,152 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>17-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>317</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1124</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1025</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1305,154 +1305,138 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v/>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+      <c r="C4" t="n">
+        <v/>
+      </c>
+      <c r="D4" t="n">
+        <v/>
+      </c>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>15-September-2025</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>1124</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1493,112 +1477,112 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>16-September-2025</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>12-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>adminui</t>
+          <t>pmpui</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1637,125 +1621,93 @@
       <c r="H6" t="n">
         <v/>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v/>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
       <c r="Z6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>11-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
       </c>
     </row>
     <row r="7">
@@ -1783,49 +1735,33 @@
       <c r="H7" t="n">
         <v/>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1913,49 +1849,33 @@
       <c r="H8" t="n">
         <v/>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2043,49 +1963,33 @@
       <c r="H9" t="n">
         <v/>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2173,74 +2077,58 @@
       <c r="H10" t="n">
         <v/>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>48</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>332</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>31</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2303,49 +2191,33 @@
       <c r="H11" t="n">
         <v/>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v/>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -2433,74 +2305,58 @@
       <c r="H12" t="n">
         <v/>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>703</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>1025</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>68</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -2563,49 +2419,33 @@
       <c r="H13" t="n">
         <v/>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -2693,49 +2533,33 @@
       <c r="H14" t="n">
         <v/>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2823,49 +2647,33 @@
       <c r="H15" t="n">
         <v/>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v/>
+      </c>
+      <c r="M15" t="n">
+        <v/>
+      </c>
+      <c r="N15" t="n">
+        <v/>
+      </c>
+      <c r="O15" t="n">
+        <v/>
+      </c>
+      <c r="P15" t="n">
+        <v/>
+      </c>
+      <c r="Q15" t="n">
+        <v/>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>15-September-2025</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -791,8 +791,8 @@
     <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
@@ -800,22 +800,22 @@
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="4" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="10" customWidth="1" min="29" max="29"/>
+    <col width="16" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="5" customWidth="1" min="34" max="34"/>
-    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="4" customWidth="1" min="34" max="34"/>
+    <col width="4" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -983,152 +983,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>331</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>auth</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>612</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>264</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>276</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1145,157 +1145,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>703</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>317</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>78</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>1124</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>1025</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -1305,143 +1305,143 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v/>
-      </c>
-      <c r="B4" t="n">
-        <v/>
-      </c>
-      <c r="C4" t="n">
-        <v/>
-      </c>
-      <c r="D4" t="n">
-        <v/>
-      </c>
-      <c r="E4" t="n">
-        <v/>
-      </c>
-      <c r="F4" t="n">
-        <v/>
-      </c>
-      <c r="G4" t="n">
-        <v/>
-      </c>
-      <c r="H4" t="n">
-        <v/>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>18-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v/>
+      </c>
+      <c r="O4" t="n">
+        <v/>
+      </c>
+      <c r="P4" t="n">
+        <v/>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -1475,114 +1475,98 @@
       <c r="H5" t="n">
         <v/>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v/>
+      </c>
+      <c r="O5" t="n">
+        <v/>
+      </c>
+      <c r="P5" t="n">
+        <v/>
+      </c>
+      <c r="Q5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>12-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1645,69 +1629,69 @@
       <c r="Q6" t="n">
         <v/>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v/>
+      </c>
+      <c r="Z6" t="n">
+        <v/>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
-        <v/>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1759,69 +1743,69 @@
       <c r="Q7" t="n">
         <v/>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
+      </c>
+      <c r="Z7" t="n">
+        <v/>
+      </c>
+      <c r="AB7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="AC7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
+      <c r="AD7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="AE7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB7" t="n">
-        <v/>
-      </c>
-      <c r="AC7" t="n">
-        <v/>
-      </c>
-      <c r="AD7" t="n">
-        <v/>
-      </c>
-      <c r="AE7" t="n">
-        <v/>
-      </c>
-      <c r="AF7" t="n">
-        <v/>
-      </c>
-      <c r="AG7" t="n">
-        <v/>
-      </c>
-      <c r="AH7" t="n">
-        <v/>
-      </c>
-      <c r="AI7" t="n">
-        <v/>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1873,69 +1857,69 @@
       <c r="Q8" t="n">
         <v/>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="AC8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
+      <c r="AD8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="AE8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y8" t="inlineStr">
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB8" t="n">
-        <v/>
-      </c>
-      <c r="AC8" t="n">
-        <v/>
-      </c>
-      <c r="AD8" t="n">
-        <v/>
-      </c>
-      <c r="AE8" t="n">
-        <v/>
-      </c>
-      <c r="AF8" t="n">
-        <v/>
-      </c>
-      <c r="AG8" t="n">
-        <v/>
-      </c>
-      <c r="AH8" t="n">
-        <v/>
-      </c>
-      <c r="AI8" t="n">
-        <v/>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1987,69 +1971,69 @@
       <c r="Q9" t="n">
         <v/>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="AC9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr">
+      <c r="AD9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="AE9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB9" t="n">
-        <v/>
-      </c>
-      <c r="AC9" t="n">
-        <v/>
-      </c>
-      <c r="AD9" t="n">
-        <v/>
-      </c>
-      <c r="AE9" t="n">
-        <v/>
-      </c>
-      <c r="AF9" t="n">
-        <v/>
-      </c>
-      <c r="AG9" t="n">
-        <v/>
-      </c>
-      <c r="AH9" t="n">
-        <v/>
-      </c>
-      <c r="AI9" t="n">
-        <v/>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2101,69 +2085,69 @@
       <c r="Q10" t="n">
         <v/>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="AC10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
+      <c r="AD10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="AE10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="W10" t="inlineStr">
+      <c r="AF10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
+      <c r="AG10" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="AB10" t="n">
-        <v/>
-      </c>
-      <c r="AC10" t="n">
-        <v/>
-      </c>
-      <c r="AD10" t="n">
-        <v/>
-      </c>
-      <c r="AE10" t="n">
-        <v/>
-      </c>
-      <c r="AF10" t="n">
-        <v/>
-      </c>
-      <c r="AG10" t="n">
-        <v/>
-      </c>
-      <c r="AH10" t="n">
-        <v/>
-      </c>
-      <c r="AI10" t="n">
-        <v/>
       </c>
     </row>
     <row r="11">
@@ -2215,69 +2199,69 @@
       <c r="Q11" t="n">
         <v/>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="X11" t="n">
+        <v/>
+      </c>
+      <c r="Y11" t="n">
+        <v/>
+      </c>
+      <c r="Z11" t="n">
+        <v/>
+      </c>
+      <c r="AB11" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="AC11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB11" t="n">
-        <v/>
-      </c>
-      <c r="AC11" t="n">
-        <v/>
-      </c>
-      <c r="AD11" t="n">
-        <v/>
-      </c>
-      <c r="AE11" t="n">
-        <v/>
-      </c>
-      <c r="AF11" t="n">
-        <v/>
-      </c>
-      <c r="AG11" t="n">
-        <v/>
-      </c>
-      <c r="AH11" t="n">
-        <v/>
-      </c>
-      <c r="AI11" t="n">
-        <v/>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2329,69 +2313,69 @@
       <c r="Q12" t="n">
         <v/>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
+      </c>
+      <c r="AB12" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="AC12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr">
+      <c r="AD12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
+      <c r="AE12" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="AF12" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
+      <c r="AG12" t="inlineStr">
         <is>
           <t>703</t>
         </is>
       </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB12" t="n">
-        <v/>
-      </c>
-      <c r="AC12" t="n">
-        <v/>
-      </c>
-      <c r="AD12" t="n">
-        <v/>
-      </c>
-      <c r="AE12" t="n">
-        <v/>
-      </c>
-      <c r="AF12" t="n">
-        <v/>
-      </c>
-      <c r="AG12" t="n">
-        <v/>
-      </c>
-      <c r="AH12" t="n">
-        <v/>
-      </c>
-      <c r="AI12" t="n">
-        <v/>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2443,69 +2427,69 @@
       <c r="Q13" t="n">
         <v/>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="AC13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr">
+      <c r="AD13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
+      <c r="AE13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB13" t="n">
-        <v/>
-      </c>
-      <c r="AC13" t="n">
-        <v/>
-      </c>
-      <c r="AD13" t="n">
-        <v/>
-      </c>
-      <c r="AE13" t="n">
-        <v/>
-      </c>
-      <c r="AF13" t="n">
-        <v/>
-      </c>
-      <c r="AG13" t="n">
-        <v/>
-      </c>
-      <c r="AH13" t="n">
-        <v/>
-      </c>
-      <c r="AI13" t="n">
-        <v/>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2557,69 +2541,69 @@
       <c r="Q14" t="n">
         <v/>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="AC14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr">
+      <c r="AD14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
+      <c r="AE14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2671,69 +2655,69 @@
       <c r="Q15" t="n">
         <v/>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v/>
+      </c>
+      <c r="V15" t="n">
+        <v/>
+      </c>
+      <c r="W15" t="n">
+        <v/>
+      </c>
+      <c r="X15" t="n">
+        <v/>
+      </c>
+      <c r="Y15" t="n">
+        <v/>
+      </c>
+      <c r="Z15" t="n">
+        <v/>
+      </c>
+      <c r="AB15" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="AC15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
+      <c r="AD15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
+      <c r="AE15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="AF15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB15" t="n">
-        <v/>
-      </c>
-      <c r="AC15" t="n">
-        <v/>
-      </c>
-      <c r="AD15" t="n">
-        <v/>
-      </c>
-      <c r="AE15" t="n">
-        <v/>
-      </c>
-      <c r="AF15" t="n">
-        <v/>
-      </c>
-      <c r="AG15" t="n">
-        <v/>
-      </c>
-      <c r="AH15" t="n">
-        <v/>
-      </c>
-      <c r="AI15" t="n">
-        <v/>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -773,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AR15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -800,8 +800,8 @@
     <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="10" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
@@ -809,13 +809,22 @@
     <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="16" customWidth="1" min="29" max="29"/>
+    <col width="10" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
-    <col width="4" customWidth="1" min="34" max="34"/>
-    <col width="4" customWidth="1" min="35" max="35"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="16" customWidth="1" min="38" max="38"/>
+    <col width="6" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="4" customWidth="1" min="43" max="43"/>
+    <col width="4" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -979,164 +988,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>112</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>331</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AR2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1145,306 +1234,370 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>19-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>17-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>703</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>317</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AP3" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v/>
+      </c>
+      <c r="B4" t="n">
+        <v/>
+      </c>
+      <c r="C4" t="n">
+        <v/>
+      </c>
+      <c r="D4" t="n">
+        <v/>
+      </c>
+      <c r="E4" t="n">
+        <v/>
+      </c>
+      <c r="F4" t="n">
+        <v/>
+      </c>
+      <c r="G4" t="n">
+        <v/>
+      </c>
+      <c r="H4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
+      </c>
+      <c r="Z4" t="n">
+        <v/>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1499,82 +1652,106 @@
       <c r="Q5" t="n">
         <v/>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="S5" t="n">
+        <v/>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v/>
+      </c>
+      <c r="V5" t="n">
+        <v/>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v/>
+      </c>
+      <c r="Y5" t="n">
+        <v/>
+      </c>
+      <c r="Z5" t="n">
+        <v/>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>16-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1653,42 +1830,66 @@
       <c r="Z6" t="n">
         <v/>
       </c>
-      <c r="AB6" t="inlineStr">
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
+        <v/>
+      </c>
+      <c r="AK6" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
+      <c r="AL6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
+      <c r="AM6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE6" t="inlineStr">
+      <c r="AN6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AR6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1767,42 +1968,66 @@
       <c r="Z7" t="n">
         <v/>
       </c>
-      <c r="AB7" t="inlineStr">
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
+      </c>
+      <c r="AK7" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
+      <c r="AL7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
+      <c r="AM7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE7" t="inlineStr">
+      <c r="AN7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH7" t="inlineStr">
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AR7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1881,42 +2106,66 @@
       <c r="Z8" t="n">
         <v/>
       </c>
-      <c r="AB8" t="inlineStr">
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
+      <c r="AL8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
+      <c r="AM8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE8" t="inlineStr">
+      <c r="AN8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH8" t="inlineStr">
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AR8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1995,42 +2244,66 @@
       <c r="Z9" t="n">
         <v/>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
+      <c r="AL9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
+      <c r="AM9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="AE9" t="inlineStr">
+      <c r="AN9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AR9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2109,42 +2382,66 @@
       <c r="Z10" t="n">
         <v/>
       </c>
-      <c r="AB10" t="inlineStr">
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
+      <c r="AL10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
+      <c r="AM10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE10" t="inlineStr">
+      <c r="AN10" t="inlineStr">
         <is>
           <t>315</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
+      <c r="AO10" t="inlineStr">
         <is>
           <t>134</t>
         </is>
       </c>
-      <c r="AG10" t="inlineStr">
+      <c r="AP10" t="inlineStr">
         <is>
           <t>48</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -2223,42 +2520,66 @@
       <c r="Z11" t="n">
         <v/>
       </c>
-      <c r="AB11" t="inlineStr">
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
+      </c>
+      <c r="AK11" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC11" t="inlineStr">
+      <c r="AL11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2337,42 +2658,66 @@
       <c r="Z12" t="n">
         <v/>
       </c>
-      <c r="AB12" t="inlineStr">
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
+      </c>
+      <c r="AK12" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
+      <c r="AL12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
+      <c r="AM12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="AE12" t="inlineStr">
+      <c r="AN12" t="inlineStr">
         <is>
           <t>210</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
+      <c r="AO12" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="AG12" t="inlineStr">
+      <c r="AP12" t="inlineStr">
         <is>
           <t>703</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2451,42 +2796,66 @@
       <c r="Z13" t="n">
         <v/>
       </c>
-      <c r="AB13" t="inlineStr">
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
+      </c>
+      <c r="AK13" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
+      <c r="AL13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
+      <c r="AM13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE13" t="inlineStr">
+      <c r="AN13" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
         <is>
           <t>188</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2565,42 +2934,66 @@
       <c r="Z14" t="n">
         <v/>
       </c>
-      <c r="AB14" t="inlineStr">
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
+      </c>
+      <c r="AK14" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
+      <c r="AL14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE14" t="inlineStr">
+      <c r="AN14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2679,42 +3072,66 @@
       <c r="Z15" t="n">
         <v/>
       </c>
-      <c r="AB15" t="inlineStr">
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
+      </c>
+      <c r="AK15" t="inlineStr">
         <is>
           <t>15-September-2025</t>
         </is>
       </c>
-      <c r="AC15" t="inlineStr">
+      <c r="AL15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AM15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE15" t="inlineStr">
+      <c r="AN15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
+      <c r="AO15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AG15" t="inlineStr">
+      <c r="AP15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -221,6 +221,31 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>88</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -523,7 +548,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,7 +557,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="9" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
@@ -557,6 +582,15 @@
     <col width="5" customWidth="1" min="24" max="24"/>
     <col width="5" customWidth="1" min="25" max="25"/>
     <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="2" customWidth="1" min="27" max="27"/>
+    <col width="19" customWidth="1" min="28" max="28"/>
+    <col width="9" customWidth="1" min="29" max="29"/>
+    <col width="5" customWidth="1" min="30" max="30"/>
+    <col width="5" customWidth="1" min="31" max="31"/>
+    <col width="5" customWidth="1" min="32" max="32"/>
+    <col width="5" customWidth="1" min="33" max="33"/>
+    <col width="5" customWidth="1" min="34" max="34"/>
+    <col width="5" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -680,124 +714,204 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -806,120 +920,160 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -928,104 +1082,144 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v/>
-      </c>
-      <c r="O4" t="n">
-        <v/>
-      </c>
-      <c r="P4" t="n">
-        <v/>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v/>
+      </c>
+      <c r="V4" t="n">
+        <v/>
+      </c>
+      <c r="W4" t="n">
+        <v/>
+      </c>
+      <c r="X4" t="n">
+        <v/>
+      </c>
+      <c r="Y4" t="n">
+        <v/>
+      </c>
+      <c r="Z4" t="n">
+        <v/>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>18-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
+      <c r="AG4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1034,67 +1228,83 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v/>
-      </c>
-      <c r="O5" t="n">
-        <v/>
-      </c>
-      <c r="P5" t="n">
-        <v/>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S5" t="n">
         <v/>
@@ -1118,6 +1328,144 @@
         <v/>
       </c>
       <c r="Z5" t="n">
+        <v/>
+      </c>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="n">
+        <v/>
+      </c>
+      <c r="AD5" t="n">
+        <v/>
+      </c>
+      <c r="AE5" t="n">
+        <v/>
+      </c>
+      <c r="AF5" t="n">
+        <v/>
+      </c>
+      <c r="AG5" t="n">
+        <v/>
+      </c>
+      <c r="AH5" t="n">
+        <v/>
+      </c>
+      <c r="AI5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>23-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v/>
+      </c>
+      <c r="O6" t="n">
+        <v/>
+      </c>
+      <c r="P6" t="n">
+        <v/>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="n">
+        <v/>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v/>
+      </c>
+      <c r="V6" t="n">
+        <v/>
+      </c>
+      <c r="W6" t="n">
+        <v/>
+      </c>
+      <c r="X6" t="n">
+        <v/>
+      </c>
+      <c r="Y6" t="n">
+        <v/>
+      </c>
+      <c r="Z6" t="n">
+        <v/>
+      </c>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -566,13 +566,13 @@
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
     <col width="5" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="3" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -758,144 +758,144 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AF2" t="inlineStr">
         <is>
           <t>0</t>
@@ -903,7 +903,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -920,152 +920,152 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>19-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
+      <c r="AG3" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1082,253 +1082,269 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v/>
-      </c>
-      <c r="T4" t="n">
-        <v/>
-      </c>
-      <c r="U4" t="n">
-        <v/>
-      </c>
-      <c r="V4" t="n">
-        <v/>
-      </c>
-      <c r="W4" t="n">
-        <v/>
-      </c>
-      <c r="X4" t="n">
-        <v/>
-      </c>
-      <c r="Y4" t="n">
-        <v/>
-      </c>
-      <c r="Z4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>18-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="n">
+        <v/>
+      </c>
+      <c r="AD4" t="n">
+        <v/>
+      </c>
+      <c r="AE4" t="n">
+        <v/>
+      </c>
+      <c r="AF4" t="n">
+        <v/>
+      </c>
+      <c r="AG4" t="n">
+        <v/>
+      </c>
+      <c r="AH4" t="n">
+        <v/>
+      </c>
+      <c r="AI4" t="n">
+        <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="n">
-        <v/>
-      </c>
-      <c r="T5" t="n">
-        <v/>
-      </c>
-      <c r="U5" t="n">
-        <v/>
-      </c>
-      <c r="V5" t="n">
-        <v/>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v/>
-      </c>
-      <c r="Y5" t="n">
-        <v/>
-      </c>
-      <c r="Z5" t="n">
-        <v/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB5" t="n">
         <v/>
@@ -1358,67 +1374,83 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v/>
-      </c>
-      <c r="O6" t="n">
-        <v/>
-      </c>
-      <c r="P6" t="n">
-        <v/>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S6" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -575,13 +575,13 @@
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="20" max="20"/>
     <col width="5" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="3" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="9" customWidth="1" min="29" max="29"/>
@@ -758,314 +758,314 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>125</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>191</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>19-September-2025</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1082,399 +1082,447 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="n">
-        <v/>
-      </c>
-      <c r="AC4" t="n">
-        <v/>
-      </c>
-      <c r="AD4" t="n">
-        <v/>
-      </c>
-      <c r="AE4" t="n">
-        <v/>
-      </c>
-      <c r="AF4" t="n">
-        <v/>
-      </c>
-      <c r="AG4" t="n">
-        <v/>
-      </c>
-      <c r="AH4" t="n">
-        <v/>
-      </c>
-      <c r="AI4" t="n">
-        <v/>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="n">
-        <v/>
-      </c>
-      <c r="AC5" t="n">
-        <v/>
-      </c>
-      <c r="AD5" t="n">
-        <v/>
-      </c>
-      <c r="AE5" t="n">
-        <v/>
-      </c>
-      <c r="AF5" t="n">
-        <v/>
-      </c>
-      <c r="AG5" t="n">
-        <v/>
-      </c>
-      <c r="AH5" t="n">
-        <v/>
-      </c>
-      <c r="AI5" t="n">
-        <v/>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="n">
-        <v/>
-      </c>
-      <c r="T6" t="n">
-        <v/>
-      </c>
-      <c r="U6" t="n">
-        <v/>
-      </c>
-      <c r="V6" t="n">
-        <v/>
-      </c>
-      <c r="W6" t="n">
-        <v/>
-      </c>
-      <c r="X6" t="n">
-        <v/>
-      </c>
-      <c r="Y6" t="n">
-        <v/>
-      </c>
-      <c r="Z6" t="n">
-        <v/>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB6" t="n">
         <v/>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -246,6 +246,206 @@
       </nvPicPr>
       <blipFill>
         <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>110</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>132</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>154</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>176</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>198</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>220</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>242</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>264</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -548,7 +748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AR14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,12 +757,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="3" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
@@ -571,8 +771,8 @@
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="3" customWidth="1" min="16" max="16"/>
-    <col width="4" customWidth="1" min="17" max="17"/>
+    <col width="5" customWidth="1" min="16" max="16"/>
+    <col width="5" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
@@ -580,17 +780,26 @@
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="3" customWidth="1" min="25" max="25"/>
-    <col width="4" customWidth="1" min="26" max="26"/>
+    <col width="5" customWidth="1" min="25" max="25"/>
+    <col width="5" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
-    <col width="9" customWidth="1" min="29" max="29"/>
+    <col width="12" customWidth="1" min="29" max="29"/>
     <col width="5" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
     <col width="5" customWidth="1" min="32" max="32"/>
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
+    <col width="2" customWidth="1" min="36" max="36"/>
+    <col width="19" customWidth="1" min="37" max="37"/>
+    <col width="9" customWidth="1" min="38" max="38"/>
+    <col width="5" customWidth="1" min="39" max="39"/>
+    <col width="5" customWidth="1" min="40" max="40"/>
+    <col width="5" customWidth="1" min="41" max="41"/>
+    <col width="5" customWidth="1" min="42" max="42"/>
+    <col width="5" customWidth="1" min="43" max="43"/>
+    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -754,164 +963,244 @@
           <t>KI</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Module</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>KI</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="AC2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="AD2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="AE2" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="AF2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
+      <c r="AG2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
+      <c r="AL2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
+      <c r="AM2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="AE2" t="inlineStr">
+      <c r="AN2" t="inlineStr">
         <is>
           <t>295</t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
+      <c r="AO2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AP2" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
@@ -920,160 +1209,200 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>139</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>72</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>125</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="AC3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
+      <c r="AD3" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="AE3" t="inlineStr">
         <is>
           <t>69</t>
         </is>
       </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
         <is>
           <t>128</t>
         </is>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
+      <c r="AL3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
+      <c r="AM3" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="AE3" t="inlineStr">
+      <c r="AN3" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
         <is>
           <t>191</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1082,160 +1411,200 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr">
+      <c r="AD4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="AE4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
+      <c r="AL4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
+      <c r="AM4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AE4" t="inlineStr">
+      <c r="AN4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1244,160 +1613,200 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="U5" t="inlineStr">
+      <c r="AD5" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="AE5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="AF5" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="AG5" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
         <is>
           <t>22-September-2025</t>
         </is>
       </c>
-      <c r="AC5" t="inlineStr">
+      <c r="AL5" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
+      <c r="AM5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="AE5" t="inlineStr">
+      <c r="AN5" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
+      <c r="AO5" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AP5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1406,146 +1815,1290 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
         <is>
           <t>23-September-2025</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="AC6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
+      <c r="AD6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="AE6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="AF6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="AG6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB6" t="n">
-        <v/>
-      </c>
-      <c r="AC6" t="n">
-        <v/>
-      </c>
-      <c r="AD6" t="n">
-        <v/>
-      </c>
-      <c r="AE6" t="n">
-        <v/>
-      </c>
-      <c r="AF6" t="n">
-        <v/>
-      </c>
-      <c r="AG6" t="n">
-        <v/>
-      </c>
-      <c r="AH6" t="n">
-        <v/>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AK6" t="n">
+        <v/>
+      </c>
+      <c r="AL6" t="n">
+        <v/>
+      </c>
+      <c r="AM6" t="n">
+        <v/>
+      </c>
+      <c r="AN6" t="n">
+        <v/>
+      </c>
+      <c r="AO6" t="n">
+        <v/>
+      </c>
+      <c r="AP6" t="n">
+        <v/>
+      </c>
+      <c r="AQ6" t="n">
+        <v/>
+      </c>
+      <c r="AR6" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v/>
+      </c>
+      <c r="O7" t="n">
+        <v/>
+      </c>
+      <c r="P7" t="n">
+        <v/>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="n">
+        <v/>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v/>
+      </c>
+      <c r="V7" t="n">
+        <v/>
+      </c>
+      <c r="W7" t="n">
+        <v/>
+      </c>
+      <c r="X7" t="n">
+        <v/>
+      </c>
+      <c r="Y7" t="n">
+        <v/>
+      </c>
+      <c r="Z7" t="n">
+        <v/>
+      </c>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="n">
+        <v/>
+      </c>
+      <c r="AD7" t="n">
+        <v/>
+      </c>
+      <c r="AE7" t="n">
+        <v/>
+      </c>
+      <c r="AF7" t="n">
+        <v/>
+      </c>
+      <c r="AG7" t="n">
+        <v/>
+      </c>
+      <c r="AH7" t="n">
+        <v/>
+      </c>
+      <c r="AI7" t="n">
+        <v/>
+      </c>
+      <c r="AK7" t="n">
+        <v/>
+      </c>
+      <c r="AL7" t="n">
+        <v/>
+      </c>
+      <c r="AM7" t="n">
+        <v/>
+      </c>
+      <c r="AN7" t="n">
+        <v/>
+      </c>
+      <c r="AO7" t="n">
+        <v/>
+      </c>
+      <c r="AP7" t="n">
+        <v/>
+      </c>
+      <c r="AQ7" t="n">
+        <v/>
+      </c>
+      <c r="AR7" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v/>
+      </c>
+      <c r="O8" t="n">
+        <v/>
+      </c>
+      <c r="P8" t="n">
+        <v/>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v/>
+      </c>
+      <c r="V8" t="n">
+        <v/>
+      </c>
+      <c r="W8" t="n">
+        <v/>
+      </c>
+      <c r="X8" t="n">
+        <v/>
+      </c>
+      <c r="Y8" t="n">
+        <v/>
+      </c>
+      <c r="Z8" t="n">
+        <v/>
+      </c>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="n">
+        <v/>
+      </c>
+      <c r="AD8" t="n">
+        <v/>
+      </c>
+      <c r="AE8" t="n">
+        <v/>
+      </c>
+      <c r="AF8" t="n">
+        <v/>
+      </c>
+      <c r="AG8" t="n">
+        <v/>
+      </c>
+      <c r="AH8" t="n">
+        <v/>
+      </c>
+      <c r="AI8" t="n">
+        <v/>
+      </c>
+      <c r="AK8" t="n">
+        <v/>
+      </c>
+      <c r="AL8" t="n">
+        <v/>
+      </c>
+      <c r="AM8" t="n">
+        <v/>
+      </c>
+      <c r="AN8" t="n">
+        <v/>
+      </c>
+      <c r="AO8" t="n">
+        <v/>
+      </c>
+      <c r="AP8" t="n">
+        <v/>
+      </c>
+      <c r="AQ8" t="n">
+        <v/>
+      </c>
+      <c r="AR8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v/>
+      </c>
+      <c r="O9" t="n">
+        <v/>
+      </c>
+      <c r="P9" t="n">
+        <v/>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="n">
+        <v/>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v/>
+      </c>
+      <c r="V9" t="n">
+        <v/>
+      </c>
+      <c r="W9" t="n">
+        <v/>
+      </c>
+      <c r="X9" t="n">
+        <v/>
+      </c>
+      <c r="Y9" t="n">
+        <v/>
+      </c>
+      <c r="Z9" t="n">
+        <v/>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="n">
+        <v/>
+      </c>
+      <c r="AD9" t="n">
+        <v/>
+      </c>
+      <c r="AE9" t="n">
+        <v/>
+      </c>
+      <c r="AF9" t="n">
+        <v/>
+      </c>
+      <c r="AG9" t="n">
+        <v/>
+      </c>
+      <c r="AH9" t="n">
+        <v/>
+      </c>
+      <c r="AI9" t="n">
+        <v/>
+      </c>
+      <c r="AK9" t="n">
+        <v/>
+      </c>
+      <c r="AL9" t="n">
+        <v/>
+      </c>
+      <c r="AM9" t="n">
+        <v/>
+      </c>
+      <c r="AN9" t="n">
+        <v/>
+      </c>
+      <c r="AO9" t="n">
+        <v/>
+      </c>
+      <c r="AP9" t="n">
+        <v/>
+      </c>
+      <c r="AQ9" t="n">
+        <v/>
+      </c>
+      <c r="AR9" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v/>
+      </c>
+      <c r="O10" t="n">
+        <v/>
+      </c>
+      <c r="P10" t="n">
+        <v/>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="n">
+        <v/>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v/>
+      </c>
+      <c r="V10" t="n">
+        <v/>
+      </c>
+      <c r="W10" t="n">
+        <v/>
+      </c>
+      <c r="X10" t="n">
+        <v/>
+      </c>
+      <c r="Y10" t="n">
+        <v/>
+      </c>
+      <c r="Z10" t="n">
+        <v/>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="n">
+        <v/>
+      </c>
+      <c r="AD10" t="n">
+        <v/>
+      </c>
+      <c r="AE10" t="n">
+        <v/>
+      </c>
+      <c r="AF10" t="n">
+        <v/>
+      </c>
+      <c r="AG10" t="n">
+        <v/>
+      </c>
+      <c r="AH10" t="n">
+        <v/>
+      </c>
+      <c r="AI10" t="n">
+        <v/>
+      </c>
+      <c r="AK10" t="n">
+        <v/>
+      </c>
+      <c r="AL10" t="n">
+        <v/>
+      </c>
+      <c r="AM10" t="n">
+        <v/>
+      </c>
+      <c r="AN10" t="n">
+        <v/>
+      </c>
+      <c r="AO10" t="n">
+        <v/>
+      </c>
+      <c r="AP10" t="n">
+        <v/>
+      </c>
+      <c r="AQ10" t="n">
+        <v/>
+      </c>
+      <c r="AR10" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v/>
+      </c>
+      <c r="O11" t="n">
+        <v/>
+      </c>
+      <c r="P11" t="n">
+        <v/>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="n">
+        <v/>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v/>
+      </c>
+      <c r="V11" t="n">
+        <v/>
+      </c>
+      <c r="W11" t="n">
+        <v/>
+      </c>
+      <c r="X11" t="n">
+        <v/>
+      </c>
+      <c r="Y11" t="n">
+        <v/>
+      </c>
+      <c r="Z11" t="n">
+        <v/>
+      </c>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="n">
+        <v/>
+      </c>
+      <c r="AD11" t="n">
+        <v/>
+      </c>
+      <c r="AE11" t="n">
+        <v/>
+      </c>
+      <c r="AF11" t="n">
+        <v/>
+      </c>
+      <c r="AG11" t="n">
+        <v/>
+      </c>
+      <c r="AH11" t="n">
+        <v/>
+      </c>
+      <c r="AI11" t="n">
+        <v/>
+      </c>
+      <c r="AK11" t="n">
+        <v/>
+      </c>
+      <c r="AL11" t="n">
+        <v/>
+      </c>
+      <c r="AM11" t="n">
+        <v/>
+      </c>
+      <c r="AN11" t="n">
+        <v/>
+      </c>
+      <c r="AO11" t="n">
+        <v/>
+      </c>
+      <c r="AP11" t="n">
+        <v/>
+      </c>
+      <c r="AQ11" t="n">
+        <v/>
+      </c>
+      <c r="AR11" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v/>
+      </c>
+      <c r="O12" t="n">
+        <v/>
+      </c>
+      <c r="P12" t="n">
+        <v/>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v/>
+      </c>
+      <c r="V12" t="n">
+        <v/>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v/>
+      </c>
+      <c r="Y12" t="n">
+        <v/>
+      </c>
+      <c r="Z12" t="n">
+        <v/>
+      </c>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="n">
+        <v/>
+      </c>
+      <c r="AD12" t="n">
+        <v/>
+      </c>
+      <c r="AE12" t="n">
+        <v/>
+      </c>
+      <c r="AF12" t="n">
+        <v/>
+      </c>
+      <c r="AG12" t="n">
+        <v/>
+      </c>
+      <c r="AH12" t="n">
+        <v/>
+      </c>
+      <c r="AI12" t="n">
+        <v/>
+      </c>
+      <c r="AK12" t="n">
+        <v/>
+      </c>
+      <c r="AL12" t="n">
+        <v/>
+      </c>
+      <c r="AM12" t="n">
+        <v/>
+      </c>
+      <c r="AN12" t="n">
+        <v/>
+      </c>
+      <c r="AO12" t="n">
+        <v/>
+      </c>
+      <c r="AP12" t="n">
+        <v/>
+      </c>
+      <c r="AQ12" t="n">
+        <v/>
+      </c>
+      <c r="AR12" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v/>
+      </c>
+      <c r="O13" t="n">
+        <v/>
+      </c>
+      <c r="P13" t="n">
+        <v/>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="n">
+        <v/>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v/>
+      </c>
+      <c r="V13" t="n">
+        <v/>
+      </c>
+      <c r="W13" t="n">
+        <v/>
+      </c>
+      <c r="X13" t="n">
+        <v/>
+      </c>
+      <c r="Y13" t="n">
+        <v/>
+      </c>
+      <c r="Z13" t="n">
+        <v/>
+      </c>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="n">
+        <v/>
+      </c>
+      <c r="AD13" t="n">
+        <v/>
+      </c>
+      <c r="AE13" t="n">
+        <v/>
+      </c>
+      <c r="AF13" t="n">
+        <v/>
+      </c>
+      <c r="AG13" t="n">
+        <v/>
+      </c>
+      <c r="AH13" t="n">
+        <v/>
+      </c>
+      <c r="AI13" t="n">
+        <v/>
+      </c>
+      <c r="AK13" t="n">
+        <v/>
+      </c>
+      <c r="AL13" t="n">
+        <v/>
+      </c>
+      <c r="AM13" t="n">
+        <v/>
+      </c>
+      <c r="AN13" t="n">
+        <v/>
+      </c>
+      <c r="AO13" t="n">
+        <v/>
+      </c>
+      <c r="AP13" t="n">
+        <v/>
+      </c>
+      <c r="AQ13" t="n">
+        <v/>
+      </c>
+      <c r="AR13" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v/>
+      </c>
+      <c r="O14" t="n">
+        <v/>
+      </c>
+      <c r="P14" t="n">
+        <v/>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
+      </c>
+      <c r="AK14" t="n">
+        <v/>
+      </c>
+      <c r="AL14" t="n">
+        <v/>
+      </c>
+      <c r="AM14" t="n">
+        <v/>
+      </c>
+      <c r="AN14" t="n">
+        <v/>
+      </c>
+      <c r="AO14" t="n">
+        <v/>
+      </c>
+      <c r="AP14" t="n">
+        <v/>
+      </c>
+      <c r="AQ14" t="n">
+        <v/>
+      </c>
+      <c r="AR14" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -456,6 +456,56 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>286</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>308</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="7620000" cy="3810000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -748,7 +798,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR14"/>
+  <dimension ref="A1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,18 +811,18 @@
     <col width="5" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
-    <col width="4" customWidth="1" min="7" max="7"/>
-    <col width="4" customWidth="1" min="8" max="8"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="7" max="7"/>
+    <col width="5" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
     <col width="5" customWidth="1" min="13" max="13"/>
     <col width="5" customWidth="1" min="14" max="14"/>
     <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="5" customWidth="1" min="17" max="17"/>
+    <col width="4" customWidth="1" min="16" max="16"/>
+    <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
     <col width="12" customWidth="1" min="20" max="20"/>
@@ -791,15 +841,6 @@
     <col width="5" customWidth="1" min="33" max="33"/>
     <col width="5" customWidth="1" min="34" max="34"/>
     <col width="5" customWidth="1" min="35" max="35"/>
-    <col width="2" customWidth="1" min="36" max="36"/>
-    <col width="19" customWidth="1" min="37" max="37"/>
-    <col width="9" customWidth="1" min="38" max="38"/>
-    <col width="5" customWidth="1" min="39" max="39"/>
-    <col width="5" customWidth="1" min="40" max="40"/>
-    <col width="5" customWidth="1" min="41" max="41"/>
-    <col width="5" customWidth="1" min="42" max="42"/>
-    <col width="5" customWidth="1" min="43" max="43"/>
-    <col width="5" customWidth="1" min="44" max="44"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -963,196 +1004,156 @@
           <t>KI</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Module</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>KI</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>idrepo</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>414</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>334</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="AB2" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>509</t>
+          <t>197</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>72</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>125</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1162,189 +1163,149 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="AM2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>masterdata-ara</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>58</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>139</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>adminui</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>16</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
@@ -1354,7 +1315,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1363,46 +1324,6 @@
         </is>
       </c>
       <c r="AI3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="AM3" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>191</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1411,200 +1332,160 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>masterdata-eng</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>945</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>24-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG4" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
       <c r="AH4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="AM4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1613,152 +1494,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>944</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>25-September-2025</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>24-September-2025</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1767,46 +1648,6 @@
         </is>
       </c>
       <c r="AI5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>22-September-2025</t>
-        </is>
-      </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -1815,112 +1656,112 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>masterdata-hin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>929</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1933,135 +1774,111 @@
           <t>0</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>23-September-2025</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="AG6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AK6" t="n">
-        <v/>
-      </c>
-      <c r="AL6" t="n">
-        <v/>
-      </c>
-      <c r="AM6" t="n">
-        <v/>
-      </c>
-      <c r="AN6" t="n">
-        <v/>
-      </c>
-      <c r="AO6" t="n">
-        <v/>
-      </c>
-      <c r="AP6" t="n">
-        <v/>
-      </c>
-      <c r="AQ6" t="n">
-        <v/>
-      </c>
-      <c r="AR6" t="n">
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="n">
+        <v/>
+      </c>
+      <c r="AD6" t="n">
+        <v/>
+      </c>
+      <c r="AE6" t="n">
+        <v/>
+      </c>
+      <c r="AF6" t="n">
+        <v/>
+      </c>
+      <c r="AG6" t="n">
+        <v/>
+      </c>
+      <c r="AH6" t="n">
+        <v/>
+      </c>
+      <c r="AI6" t="n">
         <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>masterdata-kan</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>930</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>929</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
-      <c r="K7" t="n">
-        <v/>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v/>
-      </c>
-      <c r="O7" t="n">
-        <v/>
-      </c>
-      <c r="P7" t="n">
-        <v/>
-      </c>
-      <c r="Q7" t="n">
-        <v/>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S7" t="n">
         <v/>
@@ -2109,97 +1926,89 @@
         <v/>
       </c>
       <c r="AI7" t="n">
-        <v/>
-      </c>
-      <c r="AK7" t="n">
-        <v/>
-      </c>
-      <c r="AL7" t="n">
-        <v/>
-      </c>
-      <c r="AM7" t="n">
-        <v/>
-      </c>
-      <c r="AN7" t="n">
-        <v/>
-      </c>
-      <c r="AO7" t="n">
-        <v/>
-      </c>
-      <c r="AP7" t="n">
-        <v/>
-      </c>
-      <c r="AQ7" t="n">
-        <v/>
-      </c>
-      <c r="AR7" t="n">
         <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>masterdata-tam</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v/>
-      </c>
-      <c r="M8" t="n">
-        <v/>
-      </c>
-      <c r="N8" t="n">
-        <v/>
-      </c>
-      <c r="O8" t="n">
-        <v/>
-      </c>
-      <c r="P8" t="n">
-        <v/>
-      </c>
-      <c r="Q8" t="n">
-        <v/>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S8" t="n">
         <v/>
@@ -2247,97 +2056,89 @@
         <v/>
       </c>
       <c r="AI8" t="n">
-        <v/>
-      </c>
-      <c r="AK8" t="n">
-        <v/>
-      </c>
-      <c r="AL8" t="n">
-        <v/>
-      </c>
-      <c r="AM8" t="n">
-        <v/>
-      </c>
-      <c r="AN8" t="n">
-        <v/>
-      </c>
-      <c r="AO8" t="n">
-        <v/>
-      </c>
-      <c r="AP8" t="n">
-        <v/>
-      </c>
-      <c r="AQ8" t="n">
-        <v/>
-      </c>
-      <c r="AR8" t="n">
         <v/>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v/>
-      </c>
-      <c r="M9" t="n">
-        <v/>
-      </c>
-      <c r="N9" t="n">
-        <v/>
-      </c>
-      <c r="O9" t="n">
-        <v/>
-      </c>
-      <c r="P9" t="n">
-        <v/>
-      </c>
-      <c r="Q9" t="n">
-        <v/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S9" t="n">
         <v/>
@@ -2385,97 +2186,89 @@
         <v/>
       </c>
       <c r="AI9" t="n">
-        <v/>
-      </c>
-      <c r="AK9" t="n">
-        <v/>
-      </c>
-      <c r="AL9" t="n">
-        <v/>
-      </c>
-      <c r="AM9" t="n">
-        <v/>
-      </c>
-      <c r="AN9" t="n">
-        <v/>
-      </c>
-      <c r="AO9" t="n">
-        <v/>
-      </c>
-      <c r="AP9" t="n">
-        <v/>
-      </c>
-      <c r="AQ9" t="n">
-        <v/>
-      </c>
-      <c r="AR9" t="n">
         <v/>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v/>
-      </c>
-      <c r="M10" t="n">
-        <v/>
-      </c>
-      <c r="N10" t="n">
-        <v/>
-      </c>
-      <c r="O10" t="n">
-        <v/>
-      </c>
-      <c r="P10" t="n">
-        <v/>
-      </c>
-      <c r="Q10" t="n">
-        <v/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="S10" t="n">
         <v/>
@@ -2523,97 +2316,89 @@
         <v/>
       </c>
       <c r="AI10" t="n">
-        <v/>
-      </c>
-      <c r="AK10" t="n">
-        <v/>
-      </c>
-      <c r="AL10" t="n">
-        <v/>
-      </c>
-      <c r="AM10" t="n">
-        <v/>
-      </c>
-      <c r="AN10" t="n">
-        <v/>
-      </c>
-      <c r="AO10" t="n">
-        <v/>
-      </c>
-      <c r="AP10" t="n">
-        <v/>
-      </c>
-      <c r="AQ10" t="n">
-        <v/>
-      </c>
-      <c r="AR10" t="n">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>195</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v/>
-      </c>
-      <c r="M11" t="n">
-        <v/>
-      </c>
-      <c r="N11" t="n">
-        <v/>
-      </c>
-      <c r="O11" t="n">
-        <v/>
-      </c>
-      <c r="P11" t="n">
-        <v/>
-      </c>
-      <c r="Q11" t="n">
-        <v/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S11" t="n">
         <v/>
@@ -2661,97 +2446,89 @@
         <v/>
       </c>
       <c r="AI11" t="n">
-        <v/>
-      </c>
-      <c r="AK11" t="n">
-        <v/>
-      </c>
-      <c r="AL11" t="n">
-        <v/>
-      </c>
-      <c r="AM11" t="n">
-        <v/>
-      </c>
-      <c r="AN11" t="n">
-        <v/>
-      </c>
-      <c r="AO11" t="n">
-        <v/>
-      </c>
-      <c r="AP11" t="n">
-        <v/>
-      </c>
-      <c r="AQ11" t="n">
-        <v/>
-      </c>
-      <c r="AR11" t="n">
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v/>
-      </c>
-      <c r="M12" t="n">
-        <v/>
-      </c>
-      <c r="N12" t="n">
-        <v/>
-      </c>
-      <c r="O12" t="n">
-        <v/>
-      </c>
-      <c r="P12" t="n">
-        <v/>
-      </c>
-      <c r="Q12" t="n">
-        <v/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S12" t="n">
         <v/>
@@ -2799,97 +2576,89 @@
         <v/>
       </c>
       <c r="AI12" t="n">
-        <v/>
-      </c>
-      <c r="AK12" t="n">
-        <v/>
-      </c>
-      <c r="AL12" t="n">
-        <v/>
-      </c>
-      <c r="AM12" t="n">
-        <v/>
-      </c>
-      <c r="AN12" t="n">
-        <v/>
-      </c>
-      <c r="AO12" t="n">
-        <v/>
-      </c>
-      <c r="AP12" t="n">
-        <v/>
-      </c>
-      <c r="AQ12" t="n">
-        <v/>
-      </c>
-      <c r="AR12" t="n">
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v/>
-      </c>
-      <c r="M13" t="n">
-        <v/>
-      </c>
-      <c r="N13" t="n">
-        <v/>
-      </c>
-      <c r="O13" t="n">
-        <v/>
-      </c>
-      <c r="P13" t="n">
-        <v/>
-      </c>
-      <c r="Q13" t="n">
-        <v/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="S13" t="n">
         <v/>
@@ -2937,168 +2706,380 @@
         <v/>
       </c>
       <c r="AI13" t="n">
-        <v/>
-      </c>
-      <c r="AK13" t="n">
-        <v/>
-      </c>
-      <c r="AL13" t="n">
-        <v/>
-      </c>
-      <c r="AM13" t="n">
-        <v/>
-      </c>
-      <c r="AN13" t="n">
-        <v/>
-      </c>
-      <c r="AO13" t="n">
-        <v/>
-      </c>
-      <c r="AP13" t="n">
-        <v/>
-      </c>
-      <c r="AQ13" t="n">
-        <v/>
-      </c>
-      <c r="AR13" t="n">
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="n">
+        <v/>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v/>
+      </c>
+      <c r="V14" t="n">
+        <v/>
+      </c>
+      <c r="W14" t="n">
+        <v/>
+      </c>
+      <c r="X14" t="n">
+        <v/>
+      </c>
+      <c r="Y14" t="n">
+        <v/>
+      </c>
+      <c r="Z14" t="n">
+        <v/>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="n">
+        <v/>
+      </c>
+      <c r="AD14" t="n">
+        <v/>
+      </c>
+      <c r="AE14" t="n">
+        <v/>
+      </c>
+      <c r="AF14" t="n">
+        <v/>
+      </c>
+      <c r="AG14" t="n">
+        <v/>
+      </c>
+      <c r="AH14" t="n">
+        <v/>
+      </c>
+      <c r="AI14" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v/>
-      </c>
-      <c r="M14" t="n">
-        <v/>
-      </c>
-      <c r="N14" t="n">
-        <v/>
-      </c>
-      <c r="O14" t="n">
-        <v/>
-      </c>
-      <c r="P14" t="n">
-        <v/>
-      </c>
-      <c r="Q14" t="n">
-        <v/>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="n">
-        <v/>
-      </c>
-      <c r="X14" t="n">
-        <v/>
-      </c>
-      <c r="Y14" t="n">
-        <v/>
-      </c>
-      <c r="Z14" t="n">
-        <v/>
-      </c>
-      <c r="AB14" t="n">
-        <v/>
-      </c>
-      <c r="AC14" t="n">
-        <v/>
-      </c>
-      <c r="AD14" t="n">
-        <v/>
-      </c>
-      <c r="AE14" t="n">
-        <v/>
-      </c>
-      <c r="AF14" t="n">
-        <v/>
-      </c>
-      <c r="AG14" t="n">
-        <v/>
-      </c>
-      <c r="AH14" t="n">
-        <v/>
-      </c>
-      <c r="AI14" t="n">
-        <v/>
-      </c>
-      <c r="AK14" t="n">
-        <v/>
-      </c>
-      <c r="AL14" t="n">
-        <v/>
-      </c>
-      <c r="AM14" t="n">
-        <v/>
-      </c>
-      <c r="AN14" t="n">
-        <v/>
-      </c>
-      <c r="AO14" t="n">
-        <v/>
-      </c>
-      <c r="AP14" t="n">
-        <v/>
-      </c>
-      <c r="AQ14" t="n">
-        <v/>
-      </c>
-      <c r="AR14" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="n">
+        <v/>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v/>
+      </c>
+      <c r="V15" t="n">
+        <v/>
+      </c>
+      <c r="W15" t="n">
+        <v/>
+      </c>
+      <c r="X15" t="n">
+        <v/>
+      </c>
+      <c r="Y15" t="n">
+        <v/>
+      </c>
+      <c r="Z15" t="n">
+        <v/>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="n">
+        <v/>
+      </c>
+      <c r="AD15" t="n">
+        <v/>
+      </c>
+      <c r="AE15" t="n">
+        <v/>
+      </c>
+      <c r="AF15" t="n">
+        <v/>
+      </c>
+      <c r="AG15" t="n">
+        <v/>
+      </c>
+      <c r="AH15" t="n">
+        <v/>
+      </c>
+      <c r="AI15" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v/>
+      </c>
+      <c r="B16" t="n">
+        <v/>
+      </c>
+      <c r="C16" t="n">
+        <v/>
+      </c>
+      <c r="D16" t="n">
+        <v/>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="n">
+        <v/>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>26-September-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="n">
+        <v/>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v/>
+      </c>
+      <c r="V16" t="n">
+        <v/>
+      </c>
+      <c r="W16" t="n">
+        <v/>
+      </c>
+      <c r="X16" t="n">
+        <v/>
+      </c>
+      <c r="Y16" t="n">
+        <v/>
+      </c>
+      <c r="Z16" t="n">
+        <v/>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="n">
+        <v/>
+      </c>
+      <c r="AD16" t="n">
+        <v/>
+      </c>
+      <c r="AE16" t="n">
+        <v/>
+      </c>
+      <c r="AF16" t="n">
+        <v/>
+      </c>
+      <c r="AG16" t="n">
+        <v/>
+      </c>
+      <c r="AH16" t="n">
+        <v/>
+      </c>
+      <c r="AI16" t="n">
         <v/>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev-int.xlsx
+++ b/minio-report-tracker/xlxs/dev-int.xlsx
@@ -808,12 +808,12 @@
   <cols>
     <col width="19" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="5" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="5" customWidth="1" min="4" max="4"/>
     <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
-    <col width="5" customWidth="1" min="7" max="7"/>
-    <col width="5" customWidth="1" min="8" max="8"/>
+    <col width="4" customWidth="1" min="7" max="7"/>
+    <col width="4" customWidth="1" min="8" max="8"/>
     <col width="2" customWidth="1" min="9" max="9"/>
     <col width="19" customWidth="1" min="10" max="10"/>
     <col width="16" customWidth="1" min="11" max="11"/>
@@ -825,13 +825,13 @@
     <col width="4" customWidth="1" min="17" max="17"/>
     <col width="2" customWidth="1" min="18" max="18"/>
     <col width="19" customWidth="1" min="19" max="19"/>
-    <col width="12" customWidth="1" min="20" max="20"/>
-    <col width="5" customWidth="1" min="21" max="21"/>
+    <col width="16" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
     <col width="5" customWidth="1" min="22" max="22"/>
     <col width="5" customWidth="1" min="23" max="23"/>
     <col width="5" customWidth="1" min="24" max="24"/>
-    <col width="5" customWidth="1" min="25" max="25"/>
-    <col width="5" customWidth="1" min="26" max="26"/>
+    <col width="4" customWidth="1" min="25" max="25"/>
+    <col width="4" customWidth="1" min="26" max="26"/>
     <col width="2" customWidth="1" min="27" max="27"/>
     <col width="19" customWidth="1" min="28" max="28"/>
     <col width="12" customWidth="1" min="29" max="29"/>
@@ -1008,129 +1008,129 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>auth</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>164</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>199</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>auth</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>612</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>220</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>190</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Y2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>509</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>306</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
-        </is>
-      </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>dsl</t>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>139</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -1170,129 +1170,129 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>idrepo</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>323</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>idrepo</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>414</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>334</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Y3" t="inlineStr">
         <is>
           <t>78</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
-        </is>
-      </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>adminui</t>
@@ -1310,12 +1310,12 @@
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -1332,129 +1332,129 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>masterdata-ara</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>masterdata-ara</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="W4" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
-        </is>
-      </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>residentui</t>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
@@ -1494,152 +1494,152 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>masterdata-eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>944</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>masterdata-eng</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
         <is>
           <t>25-September-2025</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>24-September-2025</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="AE5" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
@@ -1656,117 +1656,117 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>masterdata-fra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>masterdata-fra</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
         <is>
           <t>15</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>25-September-2025</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1802,107 +1802,123 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>masterdata-hin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>masterdata-hin</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>929</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Y7" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S7" t="n">
-        <v/>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-      <c r="U7" t="n">
-        <v/>
-      </c>
-      <c r="V7" t="n">
-        <v/>
-      </c>
-      <c r="W7" t="n">
-        <v/>
-      </c>
-      <c r="X7" t="n">
-        <v/>
-      </c>
-      <c r="Y7" t="n">
-        <v/>
-      </c>
-      <c r="Z7" t="n">
-        <v/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB7" t="n">
         <v/>
@@ -1932,107 +1948,123 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>masterdata-kan</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>masterdata-kan</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-      <c r="U8" t="n">
-        <v/>
-      </c>
-      <c r="V8" t="n">
-        <v/>
-      </c>
-      <c r="W8" t="n">
-        <v/>
-      </c>
-      <c r="X8" t="n">
-        <v/>
-      </c>
-      <c r="Y8" t="n">
-        <v/>
-      </c>
-      <c r="Z8" t="n">
-        <v/>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB8" t="n">
         <v/>
@@ -2062,107 +2094,123 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>masterdata-tam</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>945</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>930</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>masterdata-tam</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>945</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>930</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S9" t="n">
-        <v/>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-      <c r="U9" t="n">
-        <v/>
-      </c>
-      <c r="V9" t="n">
-        <v/>
-      </c>
-      <c r="W9" t="n">
-        <v/>
-      </c>
-      <c r="X9" t="n">
-        <v/>
-      </c>
-      <c r="Y9" t="n">
-        <v/>
-      </c>
-      <c r="Z9" t="n">
-        <v/>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB9" t="n">
         <v/>
@@ -2192,107 +2240,123 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>partner</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>partner</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>509</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>306</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="W10" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>32</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
         <is>
           <t>12</t>
         </is>
-      </c>
-      <c r="S10" t="n">
-        <v/>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-      <c r="U10" t="n">
-        <v/>
-      </c>
-      <c r="V10" t="n">
-        <v/>
-      </c>
-      <c r="W10" t="n">
-        <v/>
-      </c>
-      <c r="X10" t="n">
-        <v/>
-      </c>
-      <c r="Y10" t="n">
-        <v/>
-      </c>
-      <c r="Z10" t="n">
-        <v/>
       </c>
       <c r="AB10" t="n">
         <v/>
@@ -2322,107 +2386,123 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>prereg</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v/>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-      <c r="U11" t="n">
-        <v/>
-      </c>
-      <c r="V11" t="n">
-        <v/>
-      </c>
-      <c r="W11" t="n">
-        <v/>
-      </c>
-      <c r="X11" t="n">
-        <v/>
-      </c>
-      <c r="Y11" t="n">
-        <v/>
-      </c>
-      <c r="Z11" t="n">
-        <v/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB11" t="n">
         <v/>
@@ -2452,107 +2532,123 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>711</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1124</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>resident</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>1124</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>209</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="W12" t="inlineStr">
         <is>
           <t>211</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="X12" t="inlineStr">
         <is>
           <t>704</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S12" t="n">
-        <v/>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-      <c r="U12" t="n">
-        <v/>
-      </c>
-      <c r="V12" t="n">
-        <v/>
-      </c>
-      <c r="W12" t="n">
-        <v/>
-      </c>
-      <c r="X12" t="n">
-        <v/>
-      </c>
-      <c r="Y12" t="n">
-        <v/>
-      </c>
-      <c r="Z12" t="n">
-        <v/>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB12" t="n">
         <v/>
@@ -2582,107 +2678,123 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>adminui</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>197</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
         <is>
           <t>195</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S13" t="n">
-        <v/>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-      <c r="U13" t="n">
-        <v/>
-      </c>
-      <c r="V13" t="n">
-        <v/>
-      </c>
-      <c r="W13" t="n">
-        <v/>
-      </c>
-      <c r="X13" t="n">
-        <v/>
-      </c>
-      <c r="Y13" t="n">
-        <v/>
-      </c>
-      <c r="Z13" t="n">
-        <v/>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB13" t="n">
         <v/>
@@ -2712,107 +2824,123 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>residentui</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>adminui</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>adminui</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S14" t="n">
-        <v/>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-      <c r="U14" t="n">
-        <v/>
-      </c>
-      <c r="V14" t="n">
-        <v/>
-      </c>
-      <c r="W14" t="n">
-        <v/>
-      </c>
-      <c r="X14" t="n">
-        <v/>
-      </c>
-      <c r="Y14" t="n">
-        <v/>
-      </c>
-      <c r="Z14" t="n">
-        <v/>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB14" t="n">
         <v/>
@@ -2842,107 +2970,123 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
           <t>29-September-2025</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>pmpui</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>residentui</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
         <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>residentui</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="W15" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S15" t="n">
-        <v/>
-      </c>
-      <c r="T15" t="n">
-        <v/>
-      </c>
-      <c r="U15" t="n">
-        <v/>
-      </c>
-      <c r="V15" t="n">
-        <v/>
-      </c>
-      <c r="W15" t="n">
-        <v/>
-      </c>
-      <c r="X15" t="n">
-        <v/>
-      </c>
-      <c r="Y15" t="n">
-        <v/>
-      </c>
-      <c r="Z15" t="n">
-        <v/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB15" t="n">
         <v/>
@@ -2970,93 +3114,125 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v/>
-      </c>
-      <c r="B16" t="n">
-        <v/>
-      </c>
-      <c r="C16" t="n">
-        <v/>
-      </c>
-      <c r="D16" t="n">
-        <v/>
-      </c>
-      <c r="E16" t="n">
-        <v/>
-      </c>
-      <c r="F16" t="n">
-        <v/>
-      </c>
-      <c r="G16" t="n">
-        <v/>
-      </c>
-      <c r="H16" t="n">
-        <v/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>30-September-2025</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>29-September-2025</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>pmpui</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
           <t>26-September-2025</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>pmpui</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="W16" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S16" t="n">
-        <v/>
-      </c>
-      <c r="T16" t="n">
-        <v/>
-      </c>
-      <c r="U16" t="n">
-        <v/>
-      </c>
-      <c r="V16" t="n">
-        <v/>
-      </c>
-      <c r="W16" t="n">
-        <v/>
-      </c>
-      <c r="X16" t="n">
-        <v/>
-      </c>
-      <c r="Y16" t="n">
-        <v/>
-      </c>
-      <c r="Z16" t="n">
-        <v/>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="AB16" t="n">
         <v/>
